--- a/data2019.xlsx
+++ b/data2019.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1559,6 +1559,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000000000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1622,7 +1625,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1638,6 +1641,8 @@
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2096,10 +2101,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BZ113"/>
+  <dimension ref="A1:CB114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="BL92" workbookViewId="0">
+      <selection activeCell="BM44" sqref="BM44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2114,7 +2119,7 @@
     <col min="74" max="74" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2345,7 +2350,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -2575,8 +2580,12 @@
         <f>RANK(BY2,$BY$2:$BY$113,0)</f>
         <v>65</v>
       </c>
+      <c r="CB2">
+        <f>AQ2/AP2*100</f>
+        <v>113.05785123966943</v>
+      </c>
     </row>
-    <row r="3" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -2807,8 +2816,12 @@
         <f t="shared" ref="BZ3:BZ66" si="10">RANK(BY3,$BY$2:$BY$113,0)</f>
         <v>111</v>
       </c>
+      <c r="CB3">
+        <f t="shared" ref="CB3:CB66" si="11">AQ3/AP3*100</f>
+        <v>151.42857142857142</v>
+      </c>
     </row>
-    <row r="4" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2019</v>
       </c>
@@ -3038,8 +3051,12 @@
         <f t="shared" si="10"/>
         <v>36</v>
       </c>
+      <c r="CB4">
+        <f t="shared" si="11"/>
+        <v>101.47559591373438</v>
+      </c>
     </row>
-    <row r="5" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2019</v>
       </c>
@@ -3270,8 +3287,12 @@
         <f t="shared" si="10"/>
         <v>102</v>
       </c>
+      <c r="CB5">
+        <f t="shared" si="11"/>
+        <v>111.11111111111111</v>
+      </c>
     </row>
-    <row r="6" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2019</v>
       </c>
@@ -3502,8 +3523,12 @@
         <f t="shared" si="10"/>
         <v>98</v>
       </c>
+      <c r="CB6">
+        <f t="shared" si="11"/>
+        <v>111.21495327102804</v>
+      </c>
     </row>
-    <row r="7" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2019</v>
       </c>
@@ -3733,8 +3758,12 @@
         <f t="shared" si="10"/>
         <v>94</v>
       </c>
+      <c r="CB7">
+        <f t="shared" si="11"/>
+        <v>118.98734177215189</v>
+      </c>
     </row>
-    <row r="8" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2019</v>
       </c>
@@ -3964,8 +3993,12 @@
         <f t="shared" si="10"/>
         <v>87</v>
       </c>
+      <c r="CB8">
+        <f t="shared" si="11"/>
+        <v>116.56050955414013</v>
+      </c>
     </row>
-    <row r="9" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2019</v>
       </c>
@@ -4195,8 +4228,12 @@
         <f t="shared" si="10"/>
         <v>93</v>
       </c>
+      <c r="CB9">
+        <f t="shared" si="11"/>
+        <v>117.64705882352942</v>
+      </c>
     </row>
-    <row r="10" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2019</v>
       </c>
@@ -4426,8 +4463,12 @@
         <f t="shared" si="10"/>
         <v>61</v>
       </c>
+      <c r="CB10">
+        <f t="shared" si="11"/>
+        <v>130.61224489795919</v>
+      </c>
     </row>
-    <row r="11" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -4657,8 +4698,12 @@
         <f t="shared" si="10"/>
         <v>51</v>
       </c>
+      <c r="CB11">
+        <f t="shared" si="11"/>
+        <v>175</v>
+      </c>
     </row>
-    <row r="12" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2019</v>
       </c>
@@ -4888,8 +4933,12 @@
         <f t="shared" si="10"/>
         <v>85</v>
       </c>
+      <c r="CB12">
+        <f t="shared" si="11"/>
+        <v>132.65306122448979</v>
+      </c>
     </row>
-    <row r="13" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2019</v>
       </c>
@@ -5119,8 +5168,12 @@
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
+      <c r="CB13">
+        <f t="shared" si="11"/>
+        <v>96.296296296296291</v>
+      </c>
     </row>
-    <row r="14" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2019</v>
       </c>
@@ -5350,8 +5403,12 @@
         <f t="shared" si="10"/>
         <v>40</v>
       </c>
+      <c r="CB14">
+        <f t="shared" si="11"/>
+        <v>116.08527131782947</v>
+      </c>
     </row>
-    <row r="15" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2019</v>
       </c>
@@ -5581,8 +5638,12 @@
         <f t="shared" si="10"/>
         <v>17</v>
       </c>
+      <c r="CB15">
+        <f t="shared" si="11"/>
+        <v>109.6774193548387</v>
+      </c>
     </row>
-    <row r="16" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2019</v>
       </c>
@@ -5813,8 +5874,12 @@
         <f t="shared" si="10"/>
         <v>58</v>
       </c>
+      <c r="CB16">
+        <f t="shared" si="11"/>
+        <v>106.54761904761905</v>
+      </c>
     </row>
-    <row r="17" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2019</v>
       </c>
@@ -6044,8 +6109,12 @@
         <f t="shared" si="10"/>
         <v>101</v>
       </c>
+      <c r="CB17">
+        <f t="shared" si="11"/>
+        <v>109.6551724137931</v>
+      </c>
     </row>
-    <row r="18" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2019</v>
       </c>
@@ -6275,8 +6344,12 @@
         <f t="shared" si="10"/>
         <v>74</v>
       </c>
+      <c r="CB18">
+        <f t="shared" si="11"/>
+        <v>115.04065040650406</v>
+      </c>
     </row>
-    <row r="19" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2019</v>
       </c>
@@ -6506,8 +6579,12 @@
         <f t="shared" si="10"/>
         <v>55</v>
       </c>
+      <c r="CB19">
+        <f t="shared" si="11"/>
+        <v>109.5679012345679</v>
+      </c>
     </row>
-    <row r="20" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2019</v>
       </c>
@@ -6737,8 +6814,12 @@
         <f t="shared" si="10"/>
         <v>37</v>
       </c>
+      <c r="CB20">
+        <f t="shared" si="11"/>
+        <v>78.651685393258433</v>
+      </c>
     </row>
-    <row r="21" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2019</v>
       </c>
@@ -6969,8 +7050,12 @@
         <f t="shared" si="10"/>
         <v>95</v>
       </c>
+      <c r="CB21">
+        <f t="shared" si="11"/>
+        <v>74.259974259974257</v>
+      </c>
     </row>
-    <row r="22" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2019</v>
       </c>
@@ -7201,8 +7286,12 @@
         <f t="shared" si="10"/>
         <v>82</v>
       </c>
+      <c r="CB22">
+        <f t="shared" si="11"/>
+        <v>101.35135135135135</v>
+      </c>
     </row>
-    <row r="23" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2019</v>
       </c>
@@ -7433,8 +7522,12 @@
         <f t="shared" si="10"/>
         <v>103</v>
       </c>
+      <c r="CB23">
+        <f t="shared" si="11"/>
+        <v>113.1578947368421</v>
+      </c>
     </row>
-    <row r="24" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2019</v>
       </c>
@@ -7664,8 +7757,12 @@
         <f t="shared" si="10"/>
         <v>86</v>
       </c>
+      <c r="CB24">
+        <f t="shared" si="11"/>
+        <v>96.629213483146074</v>
+      </c>
     </row>
-    <row r="25" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2019</v>
       </c>
@@ -7896,8 +7993,12 @@
         <f t="shared" si="10"/>
         <v>70</v>
       </c>
+      <c r="CB25">
+        <f t="shared" si="11"/>
+        <v>101.94174757281553</v>
+      </c>
     </row>
-    <row r="26" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2019</v>
       </c>
@@ -8128,8 +8229,12 @@
         <f t="shared" si="10"/>
         <v>108</v>
       </c>
+      <c r="CB26">
+        <f t="shared" si="11"/>
+        <v>157.14285714285714</v>
+      </c>
     </row>
-    <row r="27" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2019</v>
       </c>
@@ -8359,8 +8464,12 @@
         <f t="shared" si="10"/>
         <v>99</v>
       </c>
+      <c r="CB27">
+        <f t="shared" si="11"/>
+        <v>107.21003134796238</v>
+      </c>
     </row>
-    <row r="28" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2019</v>
       </c>
@@ -8591,8 +8700,12 @@
         <f t="shared" si="10"/>
         <v>31</v>
       </c>
+      <c r="CB28">
+        <f t="shared" si="11"/>
+        <v>124.56140350877195</v>
+      </c>
     </row>
-    <row r="29" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2019</v>
       </c>
@@ -8822,8 +8935,12 @@
         <f t="shared" si="10"/>
         <v>109</v>
       </c>
+      <c r="CB29">
+        <f t="shared" si="11"/>
+        <v>28.571428571428569</v>
+      </c>
     </row>
-    <row r="30" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2019</v>
       </c>
@@ -9054,8 +9171,12 @@
         <f t="shared" si="10"/>
         <v>105</v>
       </c>
+      <c r="CB30">
+        <f t="shared" si="11"/>
+        <v>80</v>
+      </c>
     </row>
-    <row r="31" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2019</v>
       </c>
@@ -9285,8 +9406,12 @@
         <f t="shared" si="10"/>
         <v>96</v>
       </c>
+      <c r="CB31">
+        <f t="shared" si="11"/>
+        <v>106.94444444444444</v>
+      </c>
     </row>
-    <row r="32" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2019</v>
       </c>
@@ -9516,8 +9641,12 @@
         <f t="shared" si="10"/>
         <v>104</v>
       </c>
+      <c r="CB32">
+        <f t="shared" si="11"/>
+        <v>150</v>
+      </c>
     </row>
-    <row r="33" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2019</v>
       </c>
@@ -9748,8 +9877,12 @@
         <f t="shared" si="10"/>
         <v>75</v>
       </c>
+      <c r="CB33">
+        <f t="shared" si="11"/>
+        <v>127.58620689655173</v>
+      </c>
     </row>
-    <row r="34" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2019</v>
       </c>
@@ -9964,23 +10097,27 @@
         <v>0.23513680936599138</v>
       </c>
       <c r="BT34">
-        <f t="shared" ref="BT34:BT65" si="11">RANK(BS34,$BS$2:$BS$113,0)</f>
+        <f t="shared" ref="BT34:BT65" si="12">RANK(BS34,$BS$2:$BS$113,0)</f>
         <v>106</v>
       </c>
       <c r="BU34" t="str">
-        <f t="shared" ref="BU34:BU65" si="12">IF(BS34&lt;=0.333,"Attractivité Faible",IF(BS34&lt;=0.67,"Attractivité Moyenne",IF(BS34&gt;0.67,"Attractivité Forte","")))</f>
+        <f t="shared" ref="BU34:BU65" si="13">IF(BS34&lt;=0.333,"Attractivité Faible",IF(BS34&lt;=0.67,"Attractivité Moyenne",IF(BS34&gt;0.67,"Attractivité Forte","")))</f>
         <v>Attractivité Faible</v>
       </c>
       <c r="BY34" s="7">
-        <f t="shared" ref="BY34:BY65" si="13">SQRT(3)/4*(BM34*BN34+BN34*BO34+BO34*BP34+BP34*BQ34+BQ34*BR34+BR34*BM34)</f>
+        <f t="shared" ref="BY34:BY65" si="14">SQRT(3)/4*(BM34*BN34+BN34*BO34+BO34*BP34+BP34*BQ34+BQ34*BR34+BR34*BM34)</f>
         <v>0.23513680936176626</v>
       </c>
       <c r="BZ34">
         <f t="shared" si="10"/>
         <v>106</v>
       </c>
+      <c r="CB34">
+        <f t="shared" si="11"/>
+        <v>42.857142857142854</v>
+      </c>
     </row>
-    <row r="35" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2019</v>
       </c>
@@ -10195,23 +10332,27 @@
         <v>0.31374265021442155</v>
       </c>
       <c r="BT35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>83</v>
       </c>
       <c r="BU35" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Attractivité Faible</v>
       </c>
       <c r="BY35" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.31374265020878395</v>
       </c>
       <c r="BZ35">
         <f t="shared" si="10"/>
         <v>83</v>
       </c>
+      <c r="CB35">
+        <f t="shared" si="11"/>
+        <v>221.73913043478262</v>
+      </c>
     </row>
-    <row r="36" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2019</v>
       </c>
@@ -10426,23 +10567,27 @@
         <v>0.27153716209614998</v>
       </c>
       <c r="BT36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>97</v>
       </c>
       <c r="BU36" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Attractivité Faible</v>
       </c>
       <c r="BY36" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.27153716209127077</v>
       </c>
       <c r="BZ36">
         <f t="shared" si="10"/>
         <v>97</v>
       </c>
+      <c r="CB36">
+        <f t="shared" si="11"/>
+        <v>115.78947368421053</v>
+      </c>
     </row>
-    <row r="37" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2019</v>
       </c>
@@ -10657,23 +10802,27 @@
         <v>0.33647566782451538</v>
       </c>
       <c r="BT37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>63</v>
       </c>
       <c r="BU37" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Attractivité Moyenne</v>
       </c>
       <c r="BY37" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.33647566781846933</v>
       </c>
       <c r="BZ37">
         <f t="shared" si="10"/>
         <v>63</v>
       </c>
+      <c r="CB37">
+        <f t="shared" si="11"/>
+        <v>162.06896551724137</v>
+      </c>
     </row>
-    <row r="38" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2019</v>
       </c>
@@ -10888,23 +11037,27 @@
         <v>0.34749170898600873</v>
       </c>
       <c r="BT38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>57</v>
       </c>
       <c r="BU38" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Attractivité Moyenne</v>
       </c>
       <c r="BY38" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.34749170897976472</v>
       </c>
       <c r="BZ38">
         <f t="shared" si="10"/>
         <v>57</v>
       </c>
+      <c r="CB38">
+        <f t="shared" si="11"/>
+        <v>107.14285714285714</v>
+      </c>
     </row>
-    <row r="39" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2019</v>
       </c>
@@ -11119,23 +11272,27 @@
         <v>0.36218289719718078</v>
       </c>
       <c r="BT39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>48</v>
       </c>
       <c r="BU39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Attractivité Moyenne</v>
       </c>
       <c r="BY39" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.36218289719067276</v>
       </c>
       <c r="BZ39">
         <f t="shared" si="10"/>
         <v>48</v>
       </c>
+      <c r="CB39">
+        <f t="shared" si="11"/>
+        <v>122.72727272727273</v>
+      </c>
     </row>
-    <row r="40" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2019</v>
       </c>
@@ -11350,23 +11507,27 @@
         <v>0.44099652033816927</v>
       </c>
       <c r="BT40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="BU40" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Attractivité Moyenne</v>
       </c>
       <c r="BY40" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.44099652033024506</v>
       </c>
       <c r="BZ40">
         <f t="shared" si="10"/>
         <v>13</v>
       </c>
+      <c r="CB40">
+        <f t="shared" si="11"/>
+        <v>101.64835164835165</v>
+      </c>
     </row>
-    <row r="41" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2019</v>
       </c>
@@ -11581,23 +11742,27 @@
         <v>0.32330807303517001</v>
       </c>
       <c r="BT41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>76</v>
       </c>
       <c r="BU41" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Attractivité Faible</v>
       </c>
       <c r="BY41" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.32330807302936054</v>
       </c>
       <c r="BZ41">
         <f t="shared" si="10"/>
         <v>76</v>
       </c>
+      <c r="CB41">
+        <f t="shared" si="11"/>
+        <v>600</v>
+      </c>
     </row>
-    <row r="42" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2019</v>
       </c>
@@ -11813,23 +11978,27 @@
         <v>0.3249446989474799</v>
       </c>
       <c r="BT42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>73</v>
       </c>
       <c r="BU42" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Attractivité Faible</v>
       </c>
       <c r="BY42" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.32494469894164102</v>
       </c>
       <c r="BZ42">
         <f t="shared" si="10"/>
         <v>73</v>
       </c>
+      <c r="CB42">
+        <f t="shared" si="11"/>
+        <v>90.178232840348883</v>
+      </c>
     </row>
-    <row r="43" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2019</v>
       </c>
@@ -12044,23 +12213,27 @@
         <v>0.36264481724493797</v>
       </c>
       <c r="BT43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>47</v>
       </c>
       <c r="BU43" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Attractivité Moyenne</v>
       </c>
       <c r="BY43" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.36264481723842168</v>
       </c>
       <c r="BZ43">
         <f t="shared" si="10"/>
         <v>47</v>
       </c>
+      <c r="CB43">
+        <f t="shared" si="11"/>
+        <v>127.70270270270269</v>
+      </c>
     </row>
-    <row r="44" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2019</v>
       </c>
@@ -12246,7 +12419,7 @@
         <v>65.237495422363281</v>
       </c>
       <c r="BK44" s="5"/>
-      <c r="BM44">
+      <c r="BM44" s="16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -12275,23 +12448,27 @@
         <v>0.18932710418250348</v>
       </c>
       <c r="BT44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>110</v>
       </c>
       <c r="BU44" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Attractivité Faible</v>
       </c>
       <c r="BY44" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.18932710417910151</v>
       </c>
       <c r="BZ44">
         <f t="shared" si="10"/>
         <v>110</v>
       </c>
+      <c r="CB44">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2019</v>
       </c>
@@ -12506,23 +12683,27 @@
         <v>0.32016442106321469</v>
       </c>
       <c r="BT45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>78</v>
       </c>
       <c r="BU45" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Attractivité Faible</v>
       </c>
       <c r="BY45" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.32016442105746173</v>
       </c>
       <c r="BZ45">
         <f t="shared" si="10"/>
         <v>78</v>
       </c>
+      <c r="CB45">
+        <f t="shared" si="11"/>
+        <v>102.77777777777777</v>
+      </c>
     </row>
-    <row r="46" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2019</v>
       </c>
@@ -12737,23 +12918,27 @@
         <v>0.345819391338264</v>
       </c>
       <c r="BT46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>59</v>
       </c>
       <c r="BU46" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Attractivité Moyenne</v>
       </c>
       <c r="BY46" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.34581939133205003</v>
       </c>
       <c r="BZ46">
         <f t="shared" si="10"/>
         <v>59</v>
       </c>
+      <c r="CB46">
+        <f t="shared" si="11"/>
+        <v>107.67857142857142</v>
+      </c>
     </row>
-    <row r="47" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2019</v>
       </c>
@@ -12968,23 +13153,27 @@
         <v>0.28793054475750895</v>
       </c>
       <c r="BT47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>91</v>
       </c>
       <c r="BU47" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Attractivité Faible</v>
       </c>
       <c r="BY47" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.28793054475233515</v>
       </c>
       <c r="BZ47">
         <f t="shared" si="10"/>
         <v>91</v>
       </c>
+      <c r="CB47">
+        <f t="shared" si="11"/>
+        <v>97.872340425531917</v>
+      </c>
     </row>
-    <row r="48" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2019</v>
       </c>
@@ -13200,23 +13389,27 @@
         <v>0.29338733777746001</v>
       </c>
       <c r="BT48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>89</v>
       </c>
       <c r="BU48" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Attractivité Faible</v>
       </c>
       <c r="BY48" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.29338733777218823</v>
       </c>
       <c r="BZ48">
         <f t="shared" si="10"/>
         <v>89</v>
       </c>
+      <c r="CB48">
+        <f t="shared" si="11"/>
+        <v>250</v>
+      </c>
     </row>
-    <row r="49" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2019</v>
       </c>
@@ -13431,23 +13624,27 @@
         <v>0.29079430942552487</v>
       </c>
       <c r="BT49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>90</v>
       </c>
       <c r="BU49" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Attractivité Faible</v>
       </c>
       <c r="BY49" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.29079430942029966</v>
       </c>
       <c r="BZ49">
         <f t="shared" si="10"/>
         <v>90</v>
       </c>
+      <c r="CB49">
+        <f t="shared" si="11"/>
+        <v>138.46153846153845</v>
+      </c>
     </row>
-    <row r="50" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2019</v>
       </c>
@@ -13662,23 +13859,27 @@
         <v>0.34385173430446309</v>
       </c>
       <c r="BT50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>60</v>
       </c>
       <c r="BU50" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Attractivité Moyenne</v>
       </c>
       <c r="BY50" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.34385173429828447</v>
       </c>
       <c r="BZ50">
         <f t="shared" si="10"/>
         <v>60</v>
       </c>
+      <c r="CB50">
+        <f t="shared" si="11"/>
+        <v>112.7659574468085</v>
+      </c>
     </row>
-    <row r="51" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2019</v>
       </c>
@@ -13893,23 +14094,27 @@
         <v>0.32219217761846369</v>
       </c>
       <c r="BT51">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>77</v>
       </c>
       <c r="BU51" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Attractivité Faible</v>
       </c>
       <c r="BY51" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.32219217761267432</v>
       </c>
       <c r="BZ51">
         <f t="shared" si="10"/>
         <v>77</v>
       </c>
+      <c r="CB51">
+        <f t="shared" si="11"/>
+        <v>84.375</v>
+      </c>
     </row>
-    <row r="52" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2019</v>
       </c>
@@ -14124,23 +14329,27 @@
         <v>0.33646705205723654</v>
       </c>
       <c r="BT52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>64</v>
       </c>
       <c r="BU52" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Attractivité Moyenne</v>
       </c>
       <c r="BY52" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.3364670520511906</v>
       </c>
       <c r="BZ52">
         <f t="shared" si="10"/>
         <v>64</v>
       </c>
+      <c r="CB52">
+        <f t="shared" si="11"/>
+        <v>133.33333333333331</v>
+      </c>
     </row>
-    <row r="53" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2019</v>
       </c>
@@ -14355,23 +14564,27 @@
         <v>0.43480006800765286</v>
       </c>
       <c r="BT53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="BU53" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Attractivité Moyenne</v>
       </c>
       <c r="BY53" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.43480006799984</v>
       </c>
       <c r="BZ53">
         <f t="shared" si="10"/>
         <v>15</v>
       </c>
+      <c r="CB53">
+        <f t="shared" si="11"/>
+        <v>127.49999999999999</v>
+      </c>
     </row>
-    <row r="54" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2019</v>
       </c>
@@ -14586,23 +14799,27 @@
         <v>0.34191289952530846</v>
       </c>
       <c r="BT54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>62</v>
       </c>
       <c r="BU54" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Attractivité Moyenne</v>
       </c>
       <c r="BY54" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.34191289951916465</v>
       </c>
       <c r="BZ54">
         <f t="shared" si="10"/>
         <v>62</v>
       </c>
+      <c r="CB54">
+        <f t="shared" si="11"/>
+        <v>97.887323943661968</v>
+      </c>
     </row>
-    <row r="55" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2019</v>
       </c>
@@ -14817,23 +15034,27 @@
         <v>0.32611083280048281</v>
       </c>
       <c r="BT55">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>71</v>
       </c>
       <c r="BU55" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Attractivité Faible</v>
       </c>
       <c r="BY55" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.326110832794623</v>
       </c>
       <c r="BZ55">
         <f t="shared" si="10"/>
         <v>71</v>
       </c>
+      <c r="CB55">
+        <f t="shared" si="11"/>
+        <v>129.41176470588235</v>
+      </c>
     </row>
-    <row r="56" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2019</v>
       </c>
@@ -15048,23 +15269,27 @@
         <v>0.33420104405191642</v>
       </c>
       <c r="BT56">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>67</v>
       </c>
       <c r="BU56" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Attractivité Moyenne</v>
       </c>
       <c r="BY56" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.33420104404591122</v>
       </c>
       <c r="BZ56">
         <f t="shared" si="10"/>
         <v>67</v>
       </c>
+      <c r="CB56">
+        <f t="shared" si="11"/>
+        <v>97.058823529411768</v>
+      </c>
     </row>
-    <row r="57" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2019</v>
       </c>
@@ -15279,23 +15504,27 @@
         <v>0.40370233108523712</v>
       </c>
       <c r="BT57">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
       <c r="BU57" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Attractivité Moyenne</v>
       </c>
       <c r="BY57" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.40370233107798303</v>
       </c>
       <c r="BZ57">
         <f t="shared" si="10"/>
         <v>25</v>
       </c>
+      <c r="CB57">
+        <f t="shared" si="11"/>
+        <v>115.21739130434783</v>
+      </c>
     </row>
-    <row r="58" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2019</v>
       </c>
@@ -15510,23 +15739,27 @@
         <v>0.3668475228883662</v>
       </c>
       <c r="BT58">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>46</v>
       </c>
       <c r="BU58" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Attractivité Moyenne</v>
       </c>
       <c r="BY58" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.36684752288177441</v>
       </c>
       <c r="BZ58">
         <f t="shared" si="10"/>
         <v>46</v>
       </c>
+      <c r="CB58">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="59" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2019</v>
       </c>
@@ -15741,23 +15974,27 @@
         <v>0.29613009366399357</v>
       </c>
       <c r="BT59">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>88</v>
       </c>
       <c r="BU59" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Attractivité Faible</v>
       </c>
       <c r="BY59" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.29613009365867249</v>
       </c>
       <c r="BZ59">
         <f t="shared" si="10"/>
         <v>88</v>
       </c>
+      <c r="CB59">
+        <f t="shared" si="11"/>
+        <v>164.70588235294116</v>
+      </c>
     </row>
-    <row r="60" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2019</v>
       </c>
@@ -15972,23 +16209,27 @@
         <v>0.38921150395177029</v>
       </c>
       <c r="BT60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>33</v>
       </c>
       <c r="BU60" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Attractivité Moyenne</v>
       </c>
       <c r="BY60" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.38921150394477666</v>
       </c>
       <c r="BZ60">
         <f t="shared" si="10"/>
         <v>33</v>
       </c>
+      <c r="CB60">
+        <f t="shared" si="11"/>
+        <v>121.17647058823529</v>
+      </c>
     </row>
-    <row r="61" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2019</v>
       </c>
@@ -16203,23 +16444,27 @@
         <v>0.31592959269961979</v>
       </c>
       <c r="BT61">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>80</v>
       </c>
       <c r="BU61" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Attractivité Faible</v>
       </c>
       <c r="BY61" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.31592959269394288</v>
       </c>
       <c r="BZ61">
         <f t="shared" si="10"/>
         <v>80</v>
       </c>
+      <c r="CB61">
+        <f t="shared" si="11"/>
+        <v>96.84210526315789</v>
+      </c>
     </row>
-    <row r="62" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2019</v>
       </c>
@@ -16434,23 +16679,27 @@
         <v>0.36744928476791183</v>
       </c>
       <c r="BT62">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>45</v>
       </c>
       <c r="BU62" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Attractivité Moyenne</v>
       </c>
       <c r="BY62" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.36744928476130917</v>
       </c>
       <c r="BZ62">
         <f t="shared" si="10"/>
         <v>45</v>
       </c>
+      <c r="CB62">
+        <f t="shared" si="11"/>
+        <v>110.35856573705178</v>
+      </c>
     </row>
-    <row r="63" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2019</v>
       </c>
@@ -16665,23 +16914,27 @@
         <v>0.35978567066027678</v>
       </c>
       <c r="BT63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>50</v>
       </c>
       <c r="BU63" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Attractivité Moyenne</v>
       </c>
       <c r="BY63" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.35978567065381184</v>
       </c>
       <c r="BZ63">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
+      <c r="CB63">
+        <f t="shared" si="11"/>
+        <v>132.96703296703296</v>
+      </c>
     </row>
-    <row r="64" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2019</v>
       </c>
@@ -16896,23 +17149,27 @@
         <v>0.36101267036253532</v>
       </c>
       <c r="BT64">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>49</v>
       </c>
       <c r="BU64" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Attractivité Moyenne</v>
       </c>
       <c r="BY64" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.36101267035604834</v>
       </c>
       <c r="BZ64">
         <f t="shared" si="10"/>
         <v>49</v>
       </c>
+      <c r="CB64">
+        <f t="shared" si="11"/>
+        <v>85.632183908045974</v>
+      </c>
     </row>
-    <row r="65" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2019</v>
       </c>
@@ -17127,23 +17384,27 @@
         <v>0.37961248095736222</v>
       </c>
       <c r="BT65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>35</v>
       </c>
       <c r="BU65" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Attractivité Moyenne</v>
       </c>
       <c r="BY65" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.37961248095054106</v>
       </c>
       <c r="BZ65">
         <f t="shared" si="10"/>
         <v>35</v>
       </c>
+      <c r="CB65">
+        <f t="shared" si="11"/>
+        <v>129.50819672131149</v>
+      </c>
     </row>
-    <row r="66" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2019</v>
       </c>
@@ -17358,23 +17619,27 @@
         <v>0.34974582965514656</v>
       </c>
       <c r="BT66">
-        <f t="shared" ref="BT66:BT97" si="14">RANK(BS66,$BS$2:$BS$113,0)</f>
+        <f t="shared" ref="BT66:BT97" si="15">RANK(BS66,$BS$2:$BS$113,0)</f>
         <v>56</v>
       </c>
       <c r="BU66" t="str">
-        <f t="shared" ref="BU66:BU97" si="15">IF(BS66&lt;=0.333,"Attractivité Faible",IF(BS66&lt;=0.67,"Attractivité Moyenne",IF(BS66&gt;0.67,"Attractivité Forte","")))</f>
+        <f t="shared" ref="BU66:BU97" si="16">IF(BS66&lt;=0.333,"Attractivité Faible",IF(BS66&lt;=0.67,"Attractivité Moyenne",IF(BS66&gt;0.67,"Attractivité Forte","")))</f>
         <v>Attractivité Moyenne</v>
       </c>
       <c r="BY66" s="7">
-        <f t="shared" ref="BY66:BY97" si="16">SQRT(3)/4*(BM66*BN66+BN66*BO66+BO66*BP66+BP66*BQ66+BQ66*BR66+BR66*BM66)</f>
+        <f t="shared" ref="BY66:BY97" si="17">SQRT(3)/4*(BM66*BN66+BN66*BO66+BO66*BP66+BP66*BQ66+BQ66*BR66+BR66*BM66)</f>
         <v>0.34974582964886208</v>
       </c>
       <c r="BZ66">
         <f t="shared" si="10"/>
         <v>56</v>
       </c>
+      <c r="CB66">
+        <f t="shared" si="11"/>
+        <v>183.33333333333331</v>
+      </c>
     </row>
-    <row r="67" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2019</v>
       </c>
@@ -17561,51 +17826,55 @@
       </c>
       <c r="BK67" s="5"/>
       <c r="BM67">
-        <f t="shared" ref="BM67:BM113" si="17">AU67*$BL$1/100</f>
+        <f t="shared" ref="BM67:BM113" si="18">AU67*$BL$1/100</f>
         <v>0.62040323940139985</v>
       </c>
       <c r="BN67">
-        <f t="shared" ref="BN67:BN113" si="18">$BL$1/100*(100-BJ67)</f>
+        <f t="shared" ref="BN67:BN113" si="19">$BL$1/100*(100-BJ67)</f>
         <v>0.46513838516880535</v>
       </c>
       <c r="BO67">
-        <f t="shared" ref="BO67:BO113" si="19">$BL$1/100*(100-AN67)</f>
+        <f t="shared" ref="BO67:BO113" si="20">$BL$1/100*(100-AN67)</f>
         <v>0.52814927770241171</v>
       </c>
       <c r="BP67">
-        <f t="shared" ref="BP67:BP113" si="20">$BL$1/100*(100-AJ67)</f>
+        <f t="shared" ref="BP67:BP113" si="21">$BL$1/100*(100-AJ67)</f>
         <v>0.50688355700706511</v>
       </c>
       <c r="BQ67">
-        <f t="shared" ref="BQ67:BQ113" si="21">$BL$1/100*BD67</f>
+        <f t="shared" ref="BQ67:BQ113" si="22">$BL$1/100*BD67</f>
         <v>9.4301292389012775E-2</v>
       </c>
       <c r="BR67">
-        <f t="shared" ref="BR67:BR113" si="22">$BL$1/100*AO67</f>
+        <f t="shared" ref="BR67:BR113" si="23">$BL$1/100*AO67</f>
         <v>0.10487323158791989</v>
       </c>
       <c r="BS67">
-        <f t="shared" ref="BS67:BS113" si="23">1/2*$BV$1*(BM67*BN67+BN67*BO67+BO67*BP67+BP67*BQ67+BQ67*BR67+BR67*BM67)</f>
+        <f t="shared" ref="BS67:BS113" si="24">1/2*$BV$1*(BM67*BN67+BN67*BO67+BO67*BP67+BP67*BQ67+BQ67*BR67+BR67*BM67)</f>
         <v>0.40040649730283068</v>
       </c>
       <c r="BT67">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>28</v>
       </c>
       <c r="BU67" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Attractivité Moyenne</v>
       </c>
       <c r="BY67" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.40040649729563582</v>
       </c>
       <c r="BZ67">
-        <f t="shared" ref="BZ67:BZ113" si="24">RANK(BY67,$BY$2:$BY$113,0)</f>
+        <f t="shared" ref="BZ67:BZ113" si="25">RANK(BY67,$BY$2:$BY$113,0)</f>
         <v>28</v>
       </c>
+      <c r="CB67">
+        <f t="shared" ref="CB67:CB113" si="26">AQ67/AP67*100</f>
+        <v>185.71428571428572</v>
+      </c>
     </row>
-    <row r="68" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2019</v>
       </c>
@@ -17792,51 +18061,55 @@
       </c>
       <c r="BK68" s="5"/>
       <c r="BM68">
+        <f t="shared" si="18"/>
+        <v>0.26588710260059989</v>
+      </c>
+      <c r="BN68">
+        <f t="shared" si="19"/>
+        <v>0.53301822998664539</v>
+      </c>
+      <c r="BO68">
+        <f t="shared" si="20"/>
+        <v>0.47597336526875395</v>
+      </c>
+      <c r="BP68">
+        <f t="shared" si="21"/>
+        <v>0.41957967279955333</v>
+      </c>
+      <c r="BQ68">
+        <f t="shared" si="22"/>
+        <v>8.3134034079787575E-2</v>
+      </c>
+      <c r="BR68">
+        <f t="shared" si="23"/>
+        <v>8.0574499153121884E-2</v>
+      </c>
+      <c r="BS68">
+        <f t="shared" si="24"/>
+        <v>0.28498187823516868</v>
+      </c>
+      <c r="BT68">
+        <f t="shared" si="15"/>
+        <v>92</v>
+      </c>
+      <c r="BU68" t="str">
+        <f t="shared" si="16"/>
+        <v>Attractivité Faible</v>
+      </c>
+      <c r="BY68" s="7">
         <f t="shared" si="17"/>
-        <v>0.26588710260059989</v>
-      </c>
-      <c r="BN68">
-        <f t="shared" si="18"/>
-        <v>0.53301822998664539</v>
-      </c>
-      <c r="BO68">
-        <f t="shared" si="19"/>
-        <v>0.47597336526875395</v>
-      </c>
-      <c r="BP68">
-        <f t="shared" si="20"/>
-        <v>0.41957967279955333</v>
-      </c>
-      <c r="BQ68">
-        <f t="shared" si="21"/>
-        <v>8.3134034079787575E-2</v>
-      </c>
-      <c r="BR68">
-        <f t="shared" si="22"/>
-        <v>8.0574499153121884E-2</v>
-      </c>
-      <c r="BS68">
-        <f t="shared" si="23"/>
-        <v>0.28498187823516868</v>
-      </c>
-      <c r="BT68">
-        <f t="shared" si="14"/>
+        <v>0.28498187823004795</v>
+      </c>
+      <c r="BZ68">
+        <f t="shared" si="25"/>
         <v>92</v>
       </c>
-      <c r="BU68" t="str">
-        <f t="shared" si="15"/>
-        <v>Attractivité Faible</v>
-      </c>
-      <c r="BY68" s="7">
-        <f t="shared" si="16"/>
-        <v>0.28498187823004795</v>
-      </c>
-      <c r="BZ68">
-        <f t="shared" si="24"/>
-        <v>92</v>
+      <c r="CB68">
+        <f t="shared" si="26"/>
+        <v>42.857142857142854</v>
       </c>
     </row>
-    <row r="69" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2019</v>
       </c>
@@ -18023,51 +18296,55 @@
       </c>
       <c r="BK69" s="5"/>
       <c r="BM69">
+        <f t="shared" si="18"/>
+        <v>0.61105469743781715</v>
+      </c>
+      <c r="BN69">
+        <f t="shared" si="19"/>
+        <v>0.54396032043010545</v>
+      </c>
+      <c r="BO69">
+        <f t="shared" si="20"/>
+        <v>0.34750853449670416</v>
+      </c>
+      <c r="BP69">
+        <f t="shared" si="21"/>
+        <v>0.48787144598992804</v>
+      </c>
+      <c r="BQ69">
+        <f t="shared" si="22"/>
+        <v>8.3134034079787575E-2</v>
+      </c>
+      <c r="BR69">
+        <f t="shared" si="23"/>
+        <v>3.0749511814209304E-2</v>
+      </c>
+      <c r="BS69">
+        <f t="shared" si="24"/>
+        <v>0.32599990864436451</v>
+      </c>
+      <c r="BT69">
+        <f t="shared" si="15"/>
+        <v>72</v>
+      </c>
+      <c r="BU69" t="str">
+        <f t="shared" si="16"/>
+        <v>Attractivité Faible</v>
+      </c>
+      <c r="BY69" s="7">
         <f t="shared" si="17"/>
-        <v>0.61105469743781715</v>
-      </c>
-      <c r="BN69">
-        <f t="shared" si="18"/>
-        <v>0.54396032043010545</v>
-      </c>
-      <c r="BO69">
-        <f t="shared" si="19"/>
-        <v>0.34750853449670416</v>
-      </c>
-      <c r="BP69">
-        <f t="shared" si="20"/>
-        <v>0.48787144598992804</v>
-      </c>
-      <c r="BQ69">
-        <f t="shared" si="21"/>
-        <v>8.3134034079787575E-2</v>
-      </c>
-      <c r="BR69">
-        <f t="shared" si="22"/>
-        <v>3.0749511814209304E-2</v>
-      </c>
-      <c r="BS69">
-        <f t="shared" si="23"/>
-        <v>0.32599990864436451</v>
-      </c>
-      <c r="BT69">
-        <f t="shared" si="14"/>
+        <v>0.3259999086385067</v>
+      </c>
+      <c r="BZ69">
+        <f t="shared" si="25"/>
         <v>72</v>
       </c>
-      <c r="BU69" t="str">
-        <f t="shared" si="15"/>
-        <v>Attractivité Faible</v>
-      </c>
-      <c r="BY69" s="7">
-        <f t="shared" si="16"/>
-        <v>0.3259999086385067</v>
-      </c>
-      <c r="BZ69">
-        <f t="shared" si="24"/>
-        <v>72</v>
+      <c r="CB69">
+        <f t="shared" si="26"/>
+        <v>98.493150684931507</v>
       </c>
     </row>
-    <row r="70" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2019</v>
       </c>
@@ -18254,51 +18531,55 @@
       </c>
       <c r="BK70" s="5"/>
       <c r="BM70">
+        <f t="shared" si="18"/>
+        <v>0.62040323940139985</v>
+      </c>
+      <c r="BN70">
+        <f t="shared" si="19"/>
+        <v>0.54030620016165776</v>
+      </c>
+      <c r="BO70">
+        <f t="shared" si="20"/>
+        <v>0.32279580546054837</v>
+      </c>
+      <c r="BP70">
+        <f t="shared" si="21"/>
+        <v>0.45258379289021511</v>
+      </c>
+      <c r="BQ70">
+        <f t="shared" si="22"/>
+        <v>8.3134034079787575E-2</v>
+      </c>
+      <c r="BR70">
+        <f t="shared" si="23"/>
+        <v>0.17829056534142657</v>
+      </c>
+      <c r="BS70">
+        <f t="shared" si="24"/>
+        <v>0.35453677788338733</v>
+      </c>
+      <c r="BT70">
+        <f t="shared" si="15"/>
+        <v>53</v>
+      </c>
+      <c r="BU70" t="str">
+        <f t="shared" si="16"/>
+        <v>Attractivité Moyenne</v>
+      </c>
+      <c r="BY70" s="7">
         <f t="shared" si="17"/>
-        <v>0.62040323940139985</v>
-      </c>
-      <c r="BN70">
-        <f t="shared" si="18"/>
-        <v>0.54030620016165776</v>
-      </c>
-      <c r="BO70">
-        <f t="shared" si="19"/>
-        <v>0.32279580546054837</v>
-      </c>
-      <c r="BP70">
-        <f t="shared" si="20"/>
-        <v>0.45258379289021511</v>
-      </c>
-      <c r="BQ70">
-        <f t="shared" si="21"/>
-        <v>8.3134034079787575E-2</v>
-      </c>
-      <c r="BR70">
-        <f t="shared" si="22"/>
-        <v>0.17829056534142657</v>
-      </c>
-      <c r="BS70">
-        <f t="shared" si="23"/>
-        <v>0.35453677788338733</v>
-      </c>
-      <c r="BT70">
-        <f t="shared" si="14"/>
+        <v>0.35453677787701671</v>
+      </c>
+      <c r="BZ70">
+        <f t="shared" si="25"/>
         <v>53</v>
       </c>
-      <c r="BU70" t="str">
-        <f t="shared" si="15"/>
-        <v>Attractivité Moyenne</v>
-      </c>
-      <c r="BY70" s="7">
-        <f t="shared" si="16"/>
-        <v>0.35453677787701671</v>
-      </c>
-      <c r="BZ70">
-        <f t="shared" si="24"/>
-        <v>53</v>
+      <c r="CB70">
+        <f t="shared" si="26"/>
+        <v>114.28571428571428</v>
       </c>
     </row>
-    <row r="71" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2019</v>
       </c>
@@ -18485,51 +18766,55 @@
       </c>
       <c r="BK71" s="5"/>
       <c r="BM71">
+        <f t="shared" si="18"/>
+        <v>0.5569529080989839</v>
+      </c>
+      <c r="BN71">
+        <f t="shared" si="19"/>
+        <v>0.57427798656179818</v>
+      </c>
+      <c r="BO71">
+        <f t="shared" si="20"/>
+        <v>0.29888960063561443</v>
+      </c>
+      <c r="BP71">
+        <f t="shared" si="21"/>
+        <v>0.48970721938583472</v>
+      </c>
+      <c r="BQ71">
+        <f t="shared" si="22"/>
+        <v>8.3134034079787575E-2</v>
+      </c>
+      <c r="BR71">
+        <f t="shared" si="23"/>
+        <v>0.14598085099136224</v>
+      </c>
+      <c r="BS71">
+        <f t="shared" si="24"/>
+        <v>0.3342908639548412</v>
+      </c>
+      <c r="BT71">
+        <f t="shared" si="15"/>
+        <v>66</v>
+      </c>
+      <c r="BU71" t="str">
+        <f t="shared" si="16"/>
+        <v>Attractivité Moyenne</v>
+      </c>
+      <c r="BY71" s="7">
         <f t="shared" si="17"/>
-        <v>0.5569529080989839</v>
-      </c>
-      <c r="BN71">
-        <f t="shared" si="18"/>
-        <v>0.57427798656179818</v>
-      </c>
-      <c r="BO71">
-        <f t="shared" si="19"/>
-        <v>0.29888960063561443</v>
-      </c>
-      <c r="BP71">
-        <f t="shared" si="20"/>
-        <v>0.48970721938583472</v>
-      </c>
-      <c r="BQ71">
-        <f t="shared" si="21"/>
-        <v>8.3134034079787575E-2</v>
-      </c>
-      <c r="BR71">
-        <f t="shared" si="22"/>
-        <v>0.14598085099136224</v>
-      </c>
-      <c r="BS71">
-        <f t="shared" si="23"/>
-        <v>0.3342908639548412</v>
-      </c>
-      <c r="BT71">
-        <f t="shared" si="14"/>
+        <v>0.33429086394883439</v>
+      </c>
+      <c r="BZ71">
+        <f t="shared" si="25"/>
         <v>66</v>
       </c>
-      <c r="BU71" t="str">
-        <f t="shared" si="15"/>
-        <v>Attractivité Moyenne</v>
-      </c>
-      <c r="BY71" s="7">
-        <f t="shared" si="16"/>
-        <v>0.33429086394883439</v>
-      </c>
-      <c r="BZ71">
-        <f t="shared" si="24"/>
-        <v>66</v>
+      <c r="CB71">
+        <f t="shared" si="26"/>
+        <v>89.772727272727266</v>
       </c>
     </row>
-    <row r="72" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2019</v>
       </c>
@@ -18716,51 +19001,55 @@
       </c>
       <c r="BK72" s="5"/>
       <c r="BM72">
+        <f t="shared" si="18"/>
+        <v>0.62040323940139985</v>
+      </c>
+      <c r="BN72">
+        <f t="shared" si="19"/>
+        <v>0.57452938401550846</v>
+      </c>
+      <c r="BO72">
+        <f t="shared" si="20"/>
+        <v>0.29411249569222364</v>
+      </c>
+      <c r="BP72">
+        <f t="shared" si="21"/>
+        <v>0.49653308652604594</v>
+      </c>
+      <c r="BQ72">
+        <f t="shared" si="22"/>
+        <v>8.3134034079787575E-2</v>
+      </c>
+      <c r="BR72">
+        <f t="shared" si="23"/>
+        <v>6.4411725532030312E-2</v>
+      </c>
+      <c r="BS72">
+        <f t="shared" si="24"/>
+        <v>0.32824423750742032</v>
+      </c>
+      <c r="BT72">
+        <f t="shared" si="15"/>
+        <v>69</v>
+      </c>
+      <c r="BU72" t="str">
+        <f t="shared" si="16"/>
+        <v>Attractivité Faible</v>
+      </c>
+      <c r="BY72" s="7">
         <f t="shared" si="17"/>
-        <v>0.62040323940139985</v>
-      </c>
-      <c r="BN72">
-        <f t="shared" si="18"/>
-        <v>0.57452938401550846</v>
-      </c>
-      <c r="BO72">
-        <f t="shared" si="19"/>
-        <v>0.29411249569222364</v>
-      </c>
-      <c r="BP72">
-        <f t="shared" si="20"/>
-        <v>0.49653308652604594</v>
-      </c>
-      <c r="BQ72">
-        <f t="shared" si="21"/>
-        <v>8.3134034079787575E-2</v>
-      </c>
-      <c r="BR72">
-        <f t="shared" si="22"/>
-        <v>6.4411725532030312E-2</v>
-      </c>
-      <c r="BS72">
-        <f t="shared" si="23"/>
-        <v>0.32824423750742032</v>
-      </c>
-      <c r="BT72">
-        <f t="shared" si="14"/>
+        <v>0.32824423750152215</v>
+      </c>
+      <c r="BZ72">
+        <f t="shared" si="25"/>
         <v>69</v>
       </c>
-      <c r="BU72" t="str">
-        <f t="shared" si="15"/>
-        <v>Attractivité Faible</v>
-      </c>
-      <c r="BY72" s="7">
-        <f t="shared" si="16"/>
-        <v>0.32824423750152215</v>
-      </c>
-      <c r="BZ72">
-        <f t="shared" si="24"/>
-        <v>69</v>
+      <c r="CB72">
+        <f t="shared" si="26"/>
+        <v>142.34234234234233</v>
       </c>
     </row>
-    <row r="73" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2019</v>
       </c>
@@ -18947,51 +19236,55 @@
       </c>
       <c r="BK73" s="5"/>
       <c r="BM73">
+        <f t="shared" si="18"/>
+        <v>0.49632259152111985</v>
+      </c>
+      <c r="BN73">
+        <f t="shared" si="19"/>
+        <v>0.5803588111286514</v>
+      </c>
+      <c r="BO73">
+        <f t="shared" si="20"/>
+        <v>0.49756339799992272</v>
+      </c>
+      <c r="BP73">
+        <f t="shared" si="21"/>
+        <v>0.52706074543894132</v>
+      </c>
+      <c r="BQ73">
+        <f t="shared" si="22"/>
+        <v>8.3134034079787575E-2</v>
+      </c>
+      <c r="BR73">
+        <f t="shared" si="23"/>
+        <v>8.5079270542122207E-2</v>
+      </c>
+      <c r="BS73">
+        <f t="shared" si="24"/>
+        <v>0.40364277522739717</v>
+      </c>
+      <c r="BT73">
+        <f t="shared" si="15"/>
+        <v>26</v>
+      </c>
+      <c r="BU73" t="str">
+        <f t="shared" si="16"/>
+        <v>Attractivité Moyenne</v>
+      </c>
+      <c r="BY73" s="7">
         <f t="shared" si="17"/>
-        <v>0.49632259152111985</v>
-      </c>
-      <c r="BN73">
-        <f t="shared" si="18"/>
-        <v>0.5803588111286514</v>
-      </c>
-      <c r="BO73">
-        <f t="shared" si="19"/>
-        <v>0.49756339799992272</v>
-      </c>
-      <c r="BP73">
-        <f t="shared" si="20"/>
-        <v>0.52706074543894132</v>
-      </c>
-      <c r="BQ73">
-        <f t="shared" si="21"/>
-        <v>8.3134034079787575E-2</v>
-      </c>
-      <c r="BR73">
-        <f t="shared" si="22"/>
-        <v>8.5079270542122207E-2</v>
-      </c>
-      <c r="BS73">
-        <f t="shared" si="23"/>
-        <v>0.40364277522739717</v>
-      </c>
-      <c r="BT73">
-        <f t="shared" si="14"/>
+        <v>0.40364277522014419</v>
+      </c>
+      <c r="BZ73">
+        <f t="shared" si="25"/>
         <v>26</v>
       </c>
-      <c r="BU73" t="str">
-        <f t="shared" si="15"/>
-        <v>Attractivité Moyenne</v>
-      </c>
-      <c r="BY73" s="7">
-        <f t="shared" si="16"/>
-        <v>0.40364277522014419</v>
-      </c>
-      <c r="BZ73">
-        <f t="shared" si="24"/>
-        <v>26</v>
+      <c r="CB73">
+        <f t="shared" si="26"/>
+        <v>80</v>
       </c>
     </row>
-    <row r="74" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2019</v>
       </c>
@@ -19178,51 +19471,55 @@
       </c>
       <c r="BK74" s="5"/>
       <c r="BM74">
+        <f t="shared" si="18"/>
+        <v>0.62040323940139985</v>
+      </c>
+      <c r="BN74">
+        <f t="shared" si="19"/>
+        <v>0.55203879921879906</v>
+      </c>
+      <c r="BO74">
+        <f t="shared" si="20"/>
+        <v>0.42917428090990833</v>
+      </c>
+      <c r="BP74">
+        <f t="shared" si="21"/>
+        <v>0.49463305860978962</v>
+      </c>
+      <c r="BQ74">
+        <f t="shared" si="22"/>
+        <v>8.3134034079787575E-2</v>
+      </c>
+      <c r="BR74">
+        <f t="shared" si="23"/>
+        <v>8.7785257354236437E-2</v>
+      </c>
+      <c r="BS74">
+        <f t="shared" si="24"/>
+        <v>0.38736118746286735</v>
+      </c>
+      <c r="BT74">
+        <f t="shared" si="15"/>
+        <v>34</v>
+      </c>
+      <c r="BU74" t="str">
+        <f t="shared" si="16"/>
+        <v>Attractivité Moyenne</v>
+      </c>
+      <c r="BY74" s="7">
         <f t="shared" si="17"/>
-        <v>0.62040323940139985</v>
-      </c>
-      <c r="BN74">
-        <f t="shared" si="18"/>
-        <v>0.55203879921879906</v>
-      </c>
-      <c r="BO74">
-        <f t="shared" si="19"/>
-        <v>0.42917428090990833</v>
-      </c>
-      <c r="BP74">
-        <f t="shared" si="20"/>
-        <v>0.49463305860978962</v>
-      </c>
-      <c r="BQ74">
-        <f t="shared" si="21"/>
-        <v>8.3134034079787575E-2</v>
-      </c>
-      <c r="BR74">
-        <f t="shared" si="22"/>
-        <v>8.7785257354236437E-2</v>
-      </c>
-      <c r="BS74">
-        <f t="shared" si="23"/>
-        <v>0.38736118746286735</v>
-      </c>
-      <c r="BT74">
-        <f t="shared" si="14"/>
+        <v>0.38736118745590697</v>
+      </c>
+      <c r="BZ74">
+        <f t="shared" si="25"/>
         <v>34</v>
       </c>
-      <c r="BU74" t="str">
-        <f t="shared" si="15"/>
-        <v>Attractivité Moyenne</v>
-      </c>
-      <c r="BY74" s="7">
-        <f t="shared" si="16"/>
-        <v>0.38736118745590697</v>
-      </c>
-      <c r="BZ74">
-        <f t="shared" si="24"/>
-        <v>34</v>
+      <c r="CB74">
+        <f t="shared" si="26"/>
+        <v>113.20754716981132</v>
       </c>
     </row>
-    <row r="75" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2019</v>
       </c>
@@ -19409,51 +19706,55 @@
       </c>
       <c r="BK75" s="5"/>
       <c r="BM75">
+        <f t="shared" si="18"/>
+        <v>0.49632259152111985</v>
+      </c>
+      <c r="BN75">
+        <f t="shared" si="19"/>
+        <v>0.5792991610988294</v>
+      </c>
+      <c r="BO75">
+        <f t="shared" si="20"/>
+        <v>0.48736810476575959</v>
+      </c>
+      <c r="BP75">
+        <f t="shared" si="21"/>
+        <v>0.40372147502429556</v>
+      </c>
+      <c r="BQ75">
+        <f t="shared" si="22"/>
+        <v>8.3134034079787575E-2</v>
+      </c>
+      <c r="BR75">
+        <f t="shared" si="23"/>
+        <v>0.11685852975656896</v>
+      </c>
+      <c r="BS75">
+        <f t="shared" si="24"/>
+        <v>0.37580722474510581</v>
+      </c>
+      <c r="BT75">
+        <f t="shared" si="15"/>
+        <v>39</v>
+      </c>
+      <c r="BU75" t="str">
+        <f t="shared" si="16"/>
+        <v>Attractivité Moyenne</v>
+      </c>
+      <c r="BY75" s="7">
         <f t="shared" si="17"/>
-        <v>0.49632259152111985</v>
-      </c>
-      <c r="BN75">
-        <f t="shared" si="18"/>
-        <v>0.5792991610988294</v>
-      </c>
-      <c r="BO75">
-        <f t="shared" si="19"/>
-        <v>0.48736810476575959</v>
-      </c>
-      <c r="BP75">
-        <f t="shared" si="20"/>
-        <v>0.40372147502429556</v>
-      </c>
-      <c r="BQ75">
-        <f t="shared" si="21"/>
-        <v>8.3134034079787575E-2</v>
-      </c>
-      <c r="BR75">
-        <f t="shared" si="22"/>
-        <v>0.11685852975656896</v>
-      </c>
-      <c r="BS75">
-        <f t="shared" si="23"/>
-        <v>0.37580722474510581</v>
-      </c>
-      <c r="BT75">
-        <f t="shared" si="14"/>
+        <v>0.37580722473835299</v>
+      </c>
+      <c r="BZ75">
+        <f t="shared" si="25"/>
         <v>39</v>
       </c>
-      <c r="BU75" t="str">
-        <f t="shared" si="15"/>
-        <v>Attractivité Moyenne</v>
-      </c>
-      <c r="BY75" s="7">
-        <f t="shared" si="16"/>
-        <v>0.37580722473835299</v>
-      </c>
-      <c r="BZ75">
-        <f t="shared" si="24"/>
-        <v>39</v>
+      <c r="CB75">
+        <f t="shared" si="26"/>
+        <v>80</v>
       </c>
     </row>
-    <row r="76" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2019</v>
       </c>
@@ -19640,51 +19941,55 @@
       </c>
       <c r="BK76" s="5"/>
       <c r="BM76">
+        <f t="shared" si="18"/>
+        <v>0.57880185600130596</v>
+      </c>
+      <c r="BN76">
+        <f t="shared" si="19"/>
+        <v>0.54061195957829311</v>
+      </c>
+      <c r="BO76">
+        <f t="shared" si="20"/>
+        <v>0.4698106930907</v>
+      </c>
+      <c r="BP76">
+        <f t="shared" si="21"/>
+        <v>0.54617083213069628</v>
+      </c>
+      <c r="BQ76">
+        <f t="shared" si="22"/>
+        <v>8.3134034079787575E-2</v>
+      </c>
+      <c r="BR76">
+        <f t="shared" si="23"/>
+        <v>9.712080624425011E-2</v>
+      </c>
+      <c r="BS76">
+        <f t="shared" si="24"/>
+        <v>0.40407988179224263</v>
+      </c>
+      <c r="BT76">
+        <f t="shared" si="15"/>
+        <v>24</v>
+      </c>
+      <c r="BU76" t="str">
+        <f t="shared" si="16"/>
+        <v>Attractivité Moyenne</v>
+      </c>
+      <c r="BY76" s="7">
         <f t="shared" si="17"/>
-        <v>0.57880185600130596</v>
-      </c>
-      <c r="BN76">
-        <f t="shared" si="18"/>
-        <v>0.54061195957829311</v>
-      </c>
-      <c r="BO76">
-        <f t="shared" si="19"/>
-        <v>0.4698106930907</v>
-      </c>
-      <c r="BP76">
-        <f t="shared" si="20"/>
-        <v>0.54617083213069628</v>
-      </c>
-      <c r="BQ76">
-        <f t="shared" si="21"/>
-        <v>8.3134034079787575E-2</v>
-      </c>
-      <c r="BR76">
-        <f t="shared" si="22"/>
-        <v>9.712080624425011E-2</v>
-      </c>
-      <c r="BS76">
-        <f t="shared" si="23"/>
-        <v>0.40407988179224263</v>
-      </c>
-      <c r="BT76">
-        <f t="shared" si="14"/>
+        <v>0.40407988178498178</v>
+      </c>
+      <c r="BZ76">
+        <f t="shared" si="25"/>
         <v>24</v>
       </c>
-      <c r="BU76" t="str">
-        <f t="shared" si="15"/>
-        <v>Attractivité Moyenne</v>
-      </c>
-      <c r="BY76" s="7">
-        <f t="shared" si="16"/>
-        <v>0.40407988178498178</v>
-      </c>
-      <c r="BZ76">
-        <f t="shared" si="24"/>
-        <v>24</v>
+      <c r="CB76">
+        <f t="shared" si="26"/>
+        <v>93.294460641399411</v>
       </c>
     </row>
-    <row r="77" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2019</v>
       </c>
@@ -19871,51 +20176,55 @@
       </c>
       <c r="BK77" s="5"/>
       <c r="BM77">
+        <f t="shared" si="18"/>
+        <v>0.62040323940139985</v>
+      </c>
+      <c r="BN77">
+        <f t="shared" si="19"/>
+        <v>0.54579456334872112</v>
+      </c>
+      <c r="BO77">
+        <f t="shared" si="20"/>
+        <v>0.28513732882888337</v>
+      </c>
+      <c r="BP77">
+        <f t="shared" si="21"/>
+        <v>0.54915019676435017</v>
+      </c>
+      <c r="BQ77">
+        <f t="shared" si="22"/>
+        <v>8.3134034079787575E-2</v>
+      </c>
+      <c r="BR77">
+        <f t="shared" si="23"/>
+        <v>0.10337718894822948</v>
+      </c>
+      <c r="BS77">
+        <f t="shared" si="24"/>
+        <v>0.3330755856328102</v>
+      </c>
+      <c r="BT77">
+        <f t="shared" si="15"/>
+        <v>68</v>
+      </c>
+      <c r="BU77" t="str">
+        <f t="shared" si="16"/>
+        <v>Attractivité Moyenne</v>
+      </c>
+      <c r="BY77" s="7">
         <f t="shared" si="17"/>
-        <v>0.62040323940139985</v>
-      </c>
-      <c r="BN77">
-        <f t="shared" si="18"/>
-        <v>0.54579456334872112</v>
-      </c>
-      <c r="BO77">
-        <f t="shared" si="19"/>
-        <v>0.28513732882888337</v>
-      </c>
-      <c r="BP77">
-        <f t="shared" si="20"/>
-        <v>0.54915019676435017</v>
-      </c>
-      <c r="BQ77">
-        <f t="shared" si="21"/>
-        <v>8.3134034079787575E-2</v>
-      </c>
-      <c r="BR77">
-        <f t="shared" si="22"/>
-        <v>0.10337718894822948</v>
-      </c>
-      <c r="BS77">
-        <f t="shared" si="23"/>
-        <v>0.3330755856328102</v>
-      </c>
-      <c r="BT77">
-        <f t="shared" si="14"/>
+        <v>0.33307558562682527</v>
+      </c>
+      <c r="BZ77">
+        <f t="shared" si="25"/>
         <v>68</v>
       </c>
-      <c r="BU77" t="str">
-        <f t="shared" si="15"/>
-        <v>Attractivité Moyenne</v>
-      </c>
-      <c r="BY77" s="7">
-        <f t="shared" si="16"/>
-        <v>0.33307558562682527</v>
-      </c>
-      <c r="BZ77">
-        <f t="shared" si="24"/>
-        <v>68</v>
+      <c r="CB77">
+        <f t="shared" si="26"/>
+        <v>120</v>
       </c>
     </row>
-    <row r="78" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2019</v>
       </c>
@@ -20102,51 +20411,55 @@
       </c>
       <c r="BK78" s="5"/>
       <c r="BM78">
+        <f t="shared" si="18"/>
+        <v>0.62040323940139985</v>
+      </c>
+      <c r="BN78">
+        <f t="shared" si="19"/>
+        <v>0.58798045536342947</v>
+      </c>
+      <c r="BO78">
+        <f t="shared" si="20"/>
+        <v>0.33752004234234156</v>
+      </c>
+      <c r="BP78">
+        <f t="shared" si="21"/>
+        <v>0.43022985933663571</v>
+      </c>
+      <c r="BQ78">
+        <f t="shared" si="22"/>
+        <v>8.3134034079787575E-2</v>
+      </c>
+      <c r="BR78">
+        <f t="shared" si="23"/>
+        <v>0.15046200912459046</v>
+      </c>
+      <c r="BS78">
+        <f t="shared" si="24"/>
+        <v>0.36809272835442375</v>
+      </c>
+      <c r="BT78">
+        <f t="shared" si="15"/>
+        <v>43</v>
+      </c>
+      <c r="BU78" t="str">
+        <f t="shared" si="16"/>
+        <v>Attractivité Moyenne</v>
+      </c>
+      <c r="BY78" s="7">
         <f t="shared" si="17"/>
-        <v>0.62040323940139985</v>
-      </c>
-      <c r="BN78">
-        <f t="shared" si="18"/>
-        <v>0.58798045536342947</v>
-      </c>
-      <c r="BO78">
-        <f t="shared" si="19"/>
-        <v>0.33752004234234156</v>
-      </c>
-      <c r="BP78">
-        <f t="shared" si="20"/>
-        <v>0.43022985933663571</v>
-      </c>
-      <c r="BQ78">
-        <f t="shared" si="21"/>
-        <v>8.3134034079787575E-2</v>
-      </c>
-      <c r="BR78">
-        <f t="shared" si="22"/>
-        <v>0.15046200912459046</v>
-      </c>
-      <c r="BS78">
-        <f t="shared" si="23"/>
-        <v>0.36809272835442375</v>
-      </c>
-      <c r="BT78">
-        <f t="shared" si="14"/>
+        <v>0.36809272834780959</v>
+      </c>
+      <c r="BZ78">
+        <f t="shared" si="25"/>
         <v>43</v>
       </c>
-      <c r="BU78" t="str">
-        <f t="shared" si="15"/>
-        <v>Attractivité Moyenne</v>
-      </c>
-      <c r="BY78" s="7">
-        <f t="shared" si="16"/>
-        <v>0.36809272834780959</v>
-      </c>
-      <c r="BZ78">
-        <f t="shared" si="24"/>
-        <v>43</v>
+      <c r="CB78">
+        <f t="shared" si="26"/>
+        <v>120</v>
       </c>
     </row>
-    <row r="79" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2019</v>
       </c>
@@ -20333,51 +20646,55 @@
       </c>
       <c r="BK79" s="5"/>
       <c r="BM79">
+        <f t="shared" si="18"/>
+        <v>0.20680107980046661</v>
+      </c>
+      <c r="BN79">
+        <f t="shared" si="19"/>
+        <v>0.52932476415295471</v>
+      </c>
+      <c r="BO79">
+        <f t="shared" si="20"/>
+        <v>0.55356513040988897</v>
+      </c>
+      <c r="BP79">
+        <f t="shared" si="21"/>
+        <v>0.48397746917161644</v>
+      </c>
+      <c r="BQ79">
+        <f t="shared" si="22"/>
+        <v>8.3134034079787575E-2</v>
+      </c>
+      <c r="BR79">
+        <f t="shared" si="23"/>
+        <v>5.2607931709991472E-2</v>
+      </c>
+      <c r="BS79">
+        <f t="shared" si="24"/>
+        <v>0.31431595366107101</v>
+      </c>
+      <c r="BT79">
+        <f t="shared" si="15"/>
+        <v>81</v>
+      </c>
+      <c r="BU79" t="str">
+        <f t="shared" si="16"/>
+        <v>Attractivité Faible</v>
+      </c>
+      <c r="BY79" s="7">
         <f t="shared" si="17"/>
-        <v>0.20680107980046661</v>
-      </c>
-      <c r="BN79">
-        <f t="shared" si="18"/>
-        <v>0.52932476415295471</v>
-      </c>
-      <c r="BO79">
-        <f t="shared" si="19"/>
-        <v>0.55356513040988897</v>
-      </c>
-      <c r="BP79">
-        <f t="shared" si="20"/>
-        <v>0.48397746917161644</v>
-      </c>
-      <c r="BQ79">
-        <f t="shared" si="21"/>
-        <v>8.3134034079787575E-2</v>
-      </c>
-      <c r="BR79">
-        <f t="shared" si="22"/>
-        <v>5.2607931709991472E-2</v>
-      </c>
-      <c r="BS79">
-        <f t="shared" si="23"/>
-        <v>0.31431595366107101</v>
-      </c>
-      <c r="BT79">
-        <f t="shared" si="14"/>
+        <v>0.31431595365542309</v>
+      </c>
+      <c r="BZ79">
+        <f t="shared" si="25"/>
         <v>81</v>
       </c>
-      <c r="BU79" t="str">
-        <f t="shared" si="15"/>
-        <v>Attractivité Faible</v>
-      </c>
-      <c r="BY79" s="7">
-        <f t="shared" si="16"/>
-        <v>0.31431595365542309</v>
-      </c>
-      <c r="BZ79">
-        <f t="shared" si="24"/>
-        <v>81</v>
+      <c r="CB79">
+        <f t="shared" si="26"/>
+        <v>33.333333333333329</v>
       </c>
     </row>
-    <row r="80" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2019</v>
       </c>
@@ -20564,51 +20881,55 @@
       </c>
       <c r="BK80" s="5"/>
       <c r="BM80">
+        <f t="shared" si="18"/>
+        <v>0.62040323940139985</v>
+      </c>
+      <c r="BN80">
+        <f t="shared" si="19"/>
+        <v>0.53476376492636057</v>
+      </c>
+      <c r="BO80">
+        <f t="shared" si="20"/>
+        <v>0.41341603862911275</v>
+      </c>
+      <c r="BP80">
+        <f t="shared" si="21"/>
+        <v>0.53154423884364932</v>
+      </c>
+      <c r="BQ80">
+        <f t="shared" si="22"/>
+        <v>8.3134034079787575E-2</v>
+      </c>
+      <c r="BR80">
+        <f t="shared" si="23"/>
+        <v>0.62040323940139985</v>
+      </c>
+      <c r="BS80">
+        <f t="shared" si="24"/>
+        <v>0.54267932753709036</v>
+      </c>
+      <c r="BT80">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="BU80" t="str">
+        <f t="shared" si="16"/>
+        <v>Attractivité Moyenne</v>
+      </c>
+      <c r="BY80" s="7">
         <f t="shared" si="17"/>
-        <v>0.62040323940139985</v>
-      </c>
-      <c r="BN80">
-        <f t="shared" si="18"/>
-        <v>0.53476376492636057</v>
-      </c>
-      <c r="BO80">
-        <f t="shared" si="19"/>
-        <v>0.41341603862911275</v>
-      </c>
-      <c r="BP80">
-        <f t="shared" si="20"/>
-        <v>0.53154423884364932</v>
-      </c>
-      <c r="BQ80">
-        <f t="shared" si="21"/>
-        <v>8.3134034079787575E-2</v>
-      </c>
-      <c r="BR80">
-        <f t="shared" si="22"/>
-        <v>0.62040323940139985</v>
-      </c>
-      <c r="BS80">
-        <f t="shared" si="23"/>
-        <v>0.54267932753709036</v>
-      </c>
-      <c r="BT80">
-        <f t="shared" si="14"/>
+        <v>0.54267932752733905</v>
+      </c>
+      <c r="BZ80">
+        <f t="shared" si="25"/>
         <v>3</v>
       </c>
-      <c r="BU80" t="str">
-        <f t="shared" si="15"/>
-        <v>Attractivité Moyenne</v>
-      </c>
-      <c r="BY80" s="7">
-        <f t="shared" si="16"/>
-        <v>0.54267932752733905</v>
-      </c>
-      <c r="BZ80">
-        <f t="shared" si="24"/>
-        <v>3</v>
+      <c r="CB80">
+        <f t="shared" si="26"/>
+        <v>103.7037037037037</v>
       </c>
     </row>
-    <row r="81" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2019</v>
       </c>
@@ -20795,51 +21116,54 @@
       </c>
       <c r="BK81" s="5"/>
       <c r="BM81">
+        <f t="shared" si="18"/>
+        <v>0.62040323940139985</v>
+      </c>
+      <c r="BN81">
+        <f t="shared" si="19"/>
+        <v>0.5645110534861234</v>
+      </c>
+      <c r="BO81">
+        <f t="shared" si="20"/>
+        <v>0.56624203660165762</v>
+      </c>
+      <c r="BP81">
+        <f t="shared" si="21"/>
+        <v>0.51420809031467374</v>
+      </c>
+      <c r="BQ81">
+        <f t="shared" si="22"/>
+        <v>8.3134034079787575E-2</v>
+      </c>
+      <c r="BR81">
+        <f t="shared" si="23"/>
+        <v>2.3233857654117668E-3</v>
+      </c>
+      <c r="BS81">
+        <f t="shared" si="24"/>
+        <v>0.43536109976526932</v>
+      </c>
+      <c r="BT81">
+        <f t="shared" si="15"/>
+        <v>14</v>
+      </c>
+      <c r="BU81" t="str">
+        <f t="shared" si="16"/>
+        <v>Attractivité Moyenne</v>
+      </c>
+      <c r="BY81" s="7">
         <f t="shared" si="17"/>
-        <v>0.62040323940139985</v>
-      </c>
-      <c r="BN81">
-        <f t="shared" si="18"/>
-        <v>0.5645110534861234</v>
-      </c>
-      <c r="BO81">
-        <f t="shared" si="19"/>
-        <v>0.56624203660165762</v>
-      </c>
-      <c r="BP81">
-        <f t="shared" si="20"/>
-        <v>0.51420809031467374</v>
-      </c>
-      <c r="BQ81">
-        <f t="shared" si="21"/>
-        <v>8.3134034079787575E-2</v>
-      </c>
-      <c r="BR81">
-        <f t="shared" si="22"/>
-        <v>2.3233857654117668E-3</v>
-      </c>
-      <c r="BS81">
-        <f t="shared" si="23"/>
-        <v>0.43536109976526932</v>
-      </c>
-      <c r="BT81">
-        <f t="shared" si="14"/>
+        <v>0.43536109975744641</v>
+      </c>
+      <c r="BZ81">
+        <f t="shared" si="25"/>
         <v>14</v>
       </c>
-      <c r="BU81" t="str">
-        <f t="shared" si="15"/>
-        <v>Attractivité Moyenne</v>
-      </c>
-      <c r="BY81" s="7">
-        <f t="shared" si="16"/>
-        <v>0.43536109975744641</v>
-      </c>
-      <c r="BZ81">
-        <f t="shared" si="24"/>
-        <v>14</v>
+      <c r="CB81">
+        <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2019</v>
       </c>
@@ -21026,51 +21350,55 @@
       </c>
       <c r="BK82" s="5"/>
       <c r="BM82">
+        <f t="shared" si="18"/>
+        <v>0.62040323940139985</v>
+      </c>
+      <c r="BN82">
+        <f t="shared" si="19"/>
+        <v>0.52346523324493111</v>
+      </c>
+      <c r="BO82">
+        <f t="shared" si="20"/>
+        <v>0.52790111640665116</v>
+      </c>
+      <c r="BP82">
+        <f t="shared" si="21"/>
+        <v>0.51700269950116662</v>
+      </c>
+      <c r="BQ82">
+        <f t="shared" si="22"/>
+        <v>8.3134034079787575E-2</v>
+      </c>
+      <c r="BR82">
+        <f t="shared" si="23"/>
+        <v>8.0596621419053216E-2</v>
+      </c>
+      <c r="BS82">
+        <f t="shared" si="24"/>
+        <v>0.42162748032055952</v>
+      </c>
+      <c r="BT82">
+        <f t="shared" si="15"/>
+        <v>19</v>
+      </c>
+      <c r="BU82" t="str">
+        <f t="shared" si="16"/>
+        <v>Attractivité Moyenne</v>
+      </c>
+      <c r="BY82" s="7">
         <f t="shared" si="17"/>
-        <v>0.62040323940139985</v>
-      </c>
-      <c r="BN82">
-        <f t="shared" si="18"/>
-        <v>0.52346523324493111</v>
-      </c>
-      <c r="BO82">
-        <f t="shared" si="19"/>
-        <v>0.52790111640665116</v>
-      </c>
-      <c r="BP82">
-        <f t="shared" si="20"/>
-        <v>0.51700269950116662</v>
-      </c>
-      <c r="BQ82">
-        <f t="shared" si="21"/>
-        <v>8.3134034079787575E-2</v>
-      </c>
-      <c r="BR82">
-        <f t="shared" si="22"/>
-        <v>8.0596621419053216E-2</v>
-      </c>
-      <c r="BS82">
-        <f t="shared" si="23"/>
-        <v>0.42162748032055952</v>
-      </c>
-      <c r="BT82">
-        <f t="shared" si="14"/>
+        <v>0.42162748031298336</v>
+      </c>
+      <c r="BZ82">
+        <f t="shared" si="25"/>
         <v>19</v>
       </c>
-      <c r="BU82" t="str">
-        <f t="shared" si="15"/>
-        <v>Attractivité Moyenne</v>
-      </c>
-      <c r="BY82" s="7">
-        <f t="shared" si="16"/>
-        <v>0.42162748031298336</v>
-      </c>
-      <c r="BZ82">
-        <f t="shared" si="24"/>
-        <v>19</v>
+      <c r="CB82">
+        <f t="shared" si="26"/>
+        <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2019</v>
       </c>
@@ -21257,51 +21585,55 @@
       </c>
       <c r="BK83" s="5"/>
       <c r="BM83">
+        <f t="shared" si="18"/>
+        <v>0.3817866088623999</v>
+      </c>
+      <c r="BN83">
+        <f t="shared" si="19"/>
+        <v>0.60605199033288748</v>
+      </c>
+      <c r="BO83">
+        <f t="shared" si="20"/>
+        <v>0.48292188155004967</v>
+      </c>
+      <c r="BP83">
+        <f t="shared" si="21"/>
+        <v>0.49087424686516851</v>
+      </c>
+      <c r="BQ83">
+        <f t="shared" si="22"/>
+        <v>8.3134034079787575E-2</v>
+      </c>
+      <c r="BR83">
+        <f t="shared" si="23"/>
+        <v>0.14273275328971638</v>
+      </c>
+      <c r="BS83">
+        <f t="shared" si="24"/>
+        <v>0.37597625857318501</v>
+      </c>
+      <c r="BT83">
+        <f t="shared" si="15"/>
+        <v>38</v>
+      </c>
+      <c r="BU83" t="str">
+        <f t="shared" si="16"/>
+        <v>Attractivité Moyenne</v>
+      </c>
+      <c r="BY83" s="7">
         <f t="shared" si="17"/>
-        <v>0.3817866088623999</v>
-      </c>
-      <c r="BN83">
-        <f t="shared" si="18"/>
-        <v>0.60605199033288748</v>
-      </c>
-      <c r="BO83">
-        <f t="shared" si="19"/>
-        <v>0.48292188155004967</v>
-      </c>
-      <c r="BP83">
-        <f t="shared" si="20"/>
-        <v>0.49087424686516851</v>
-      </c>
-      <c r="BQ83">
-        <f t="shared" si="21"/>
-        <v>8.3134034079787575E-2</v>
-      </c>
-      <c r="BR83">
-        <f t="shared" si="22"/>
-        <v>0.14273275328971638</v>
-      </c>
-      <c r="BS83">
-        <f t="shared" si="23"/>
-        <v>0.37597625857318501</v>
-      </c>
-      <c r="BT83">
-        <f t="shared" si="14"/>
+        <v>0.37597625856642919</v>
+      </c>
+      <c r="BZ83">
+        <f t="shared" si="25"/>
         <v>38</v>
       </c>
-      <c r="BU83" t="str">
-        <f t="shared" si="15"/>
-        <v>Attractivité Moyenne</v>
-      </c>
-      <c r="BY83" s="7">
-        <f t="shared" si="16"/>
-        <v>0.37597625856642919</v>
-      </c>
-      <c r="BZ83">
-        <f t="shared" si="24"/>
-        <v>38</v>
+      <c r="CB83">
+        <f t="shared" si="26"/>
+        <v>61.53846153846154</v>
       </c>
     </row>
-    <row r="84" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2019</v>
       </c>
@@ -21489,51 +21821,55 @@
       </c>
       <c r="BK84" s="5"/>
       <c r="BM84">
+        <f t="shared" si="18"/>
+        <v>0.62040323940139985</v>
+      </c>
+      <c r="BN84">
+        <f t="shared" si="19"/>
+        <v>0.59865910062276939</v>
+      </c>
+      <c r="BO84">
+        <f t="shared" si="20"/>
+        <v>0.62040323940139985</v>
+      </c>
+      <c r="BP84">
+        <f t="shared" si="21"/>
+        <v>0.5591323912506867</v>
+      </c>
+      <c r="BQ84">
+        <f t="shared" si="22"/>
+        <v>8.3134034079787575E-2</v>
+      </c>
+      <c r="BR84">
+        <f t="shared" si="23"/>
+        <v>8.4062060473125338E-2</v>
+      </c>
+      <c r="BS84">
+        <f t="shared" si="24"/>
+        <v>0.51759366252233863</v>
+      </c>
+      <c r="BT84">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="BU84" t="str">
+        <f t="shared" si="16"/>
+        <v>Attractivité Moyenne</v>
+      </c>
+      <c r="BY84" s="7">
         <f t="shared" si="17"/>
-        <v>0.62040323940139985</v>
-      </c>
-      <c r="BN84">
-        <f t="shared" si="18"/>
-        <v>0.59865910062276939</v>
-      </c>
-      <c r="BO84">
-        <f t="shared" si="19"/>
-        <v>0.62040323940139985</v>
-      </c>
-      <c r="BP84">
-        <f t="shared" si="20"/>
-        <v>0.5591323912506867</v>
-      </c>
-      <c r="BQ84">
-        <f t="shared" si="21"/>
-        <v>8.3134034079787575E-2</v>
-      </c>
-      <c r="BR84">
-        <f t="shared" si="22"/>
-        <v>8.4062060473125338E-2</v>
-      </c>
-      <c r="BS84">
-        <f t="shared" si="23"/>
-        <v>0.51759366252233863</v>
-      </c>
-      <c r="BT84">
-        <f t="shared" si="14"/>
+        <v>0.51759366251303807</v>
+      </c>
+      <c r="BZ84">
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
-      <c r="BU84" t="str">
-        <f t="shared" si="15"/>
-        <v>Attractivité Moyenne</v>
-      </c>
-      <c r="BY84" s="7">
-        <f t="shared" si="16"/>
-        <v>0.51759366251303807</v>
-      </c>
-      <c r="BZ84">
-        <f t="shared" si="24"/>
-        <v>4</v>
+      <c r="CB84">
+        <f t="shared" si="26"/>
+        <v>300</v>
       </c>
     </row>
-    <row r="85" spans="1:78" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:80" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2019</v>
       </c>
@@ -21720,51 +22056,55 @@
       </c>
       <c r="BK85" s="11"/>
       <c r="BM85" s="10">
+        <f t="shared" si="18"/>
+        <v>0.62040323940139985</v>
+      </c>
+      <c r="BN85" s="10">
+        <f t="shared" si="19"/>
+        <v>0.59219561676742305</v>
+      </c>
+      <c r="BO85" s="10">
+        <f t="shared" si="20"/>
+        <v>0.55836291546125982</v>
+      </c>
+      <c r="BP85" s="10">
+        <f t="shared" si="21"/>
+        <v>0.56564063280208643</v>
+      </c>
+      <c r="BQ85" s="10">
+        <f t="shared" si="22"/>
+        <v>8.3134034079787575E-2</v>
+      </c>
+      <c r="BR85" s="10">
+        <f t="shared" si="23"/>
+        <v>0.62040323940139985</v>
+      </c>
+      <c r="BS85" s="10">
+        <f t="shared" si="24"/>
+        <v>0.64839048928585497</v>
+      </c>
+      <c r="BT85" s="10">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="BU85" s="10" t="str">
+        <f t="shared" si="16"/>
+        <v>Attractivité Moyenne</v>
+      </c>
+      <c r="BY85" s="7">
         <f t="shared" si="17"/>
-        <v>0.62040323940139985</v>
-      </c>
-      <c r="BN85" s="10">
-        <f t="shared" si="18"/>
-        <v>0.59219561676742305</v>
-      </c>
-      <c r="BO85" s="10">
-        <f t="shared" si="19"/>
-        <v>0.55836291546125982</v>
-      </c>
-      <c r="BP85" s="10">
-        <f t="shared" si="20"/>
-        <v>0.56564063280208643</v>
-      </c>
-      <c r="BQ85" s="10">
-        <f t="shared" si="21"/>
-        <v>8.3134034079787575E-2</v>
-      </c>
-      <c r="BR85" s="10">
-        <f t="shared" si="22"/>
-        <v>0.62040323940139985</v>
-      </c>
-      <c r="BS85" s="10">
-        <f t="shared" si="23"/>
-        <v>0.64839048928585497</v>
-      </c>
-      <c r="BT85" s="10">
-        <f t="shared" si="14"/>
+        <v>0.64839048927420417</v>
+      </c>
+      <c r="BZ85">
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="BU85" s="10" t="str">
-        <f t="shared" si="15"/>
-        <v>Attractivité Moyenne</v>
-      </c>
-      <c r="BY85" s="7">
-        <f t="shared" si="16"/>
-        <v>0.64839048927420417</v>
-      </c>
-      <c r="BZ85">
-        <f t="shared" si="24"/>
-        <v>1</v>
+      <c r="CB85">
+        <f t="shared" si="26"/>
+        <v>300</v>
       </c>
     </row>
-    <row r="86" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2019</v>
       </c>
@@ -21951,51 +22291,55 @@
       </c>
       <c r="BK86" s="5"/>
       <c r="BM86">
+        <f t="shared" si="18"/>
+        <v>0.62040323940139985</v>
+      </c>
+      <c r="BN86">
+        <f t="shared" si="19"/>
+        <v>0.61311834143462096</v>
+      </c>
+      <c r="BO86">
+        <f t="shared" si="20"/>
+        <v>0.55819747459741942</v>
+      </c>
+      <c r="BP86">
+        <f t="shared" si="21"/>
+        <v>0.62040323940139985</v>
+      </c>
+      <c r="BQ86">
+        <f t="shared" si="22"/>
+        <v>8.3134034079787575E-2</v>
+      </c>
+      <c r="BR86">
+        <f t="shared" si="23"/>
+        <v>2.6940109687144855E-2</v>
+      </c>
+      <c r="BS86">
+        <f t="shared" si="24"/>
+        <v>0.49340032067125839</v>
+      </c>
+      <c r="BT86">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="BU86" t="str">
+        <f t="shared" si="16"/>
+        <v>Attractivité Moyenne</v>
+      </c>
+      <c r="BY86" s="7">
         <f t="shared" si="17"/>
-        <v>0.62040323940139985</v>
-      </c>
-      <c r="BN86">
-        <f t="shared" si="18"/>
-        <v>0.61311834143462096</v>
-      </c>
-      <c r="BO86">
-        <f t="shared" si="19"/>
-        <v>0.55819747459741942</v>
-      </c>
-      <c r="BP86">
-        <f t="shared" si="20"/>
-        <v>0.62040323940139985</v>
-      </c>
-      <c r="BQ86">
-        <f t="shared" si="21"/>
-        <v>8.3134034079787575E-2</v>
-      </c>
-      <c r="BR86">
-        <f t="shared" si="22"/>
-        <v>2.6940109687144855E-2</v>
-      </c>
-      <c r="BS86">
-        <f t="shared" si="23"/>
-        <v>0.49340032067125839</v>
-      </c>
-      <c r="BT86">
-        <f t="shared" si="14"/>
+        <v>0.49340032066239259</v>
+      </c>
+      <c r="BZ86">
+        <f t="shared" si="25"/>
         <v>6</v>
       </c>
-      <c r="BU86" t="str">
-        <f t="shared" si="15"/>
-        <v>Attractivité Moyenne</v>
-      </c>
-      <c r="BY86" s="7">
-        <f t="shared" si="16"/>
-        <v>0.49340032066239259</v>
-      </c>
-      <c r="BZ86">
-        <f t="shared" si="24"/>
-        <v>6</v>
+      <c r="CB86">
+        <f t="shared" si="26"/>
+        <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2019</v>
       </c>
@@ -22182,51 +22526,55 @@
       </c>
       <c r="BK87" s="5"/>
       <c r="BM87">
+        <f t="shared" si="18"/>
+        <v>0.20680107980046661</v>
+      </c>
+      <c r="BN87">
+        <f t="shared" si="19"/>
+        <v>0.59137191587990534</v>
+      </c>
+      <c r="BO87">
+        <f t="shared" si="20"/>
+        <v>0.28468236645332234</v>
+      </c>
+      <c r="BP87">
+        <f t="shared" si="21"/>
+        <v>0.43284238686680099</v>
+      </c>
+      <c r="BQ87">
+        <f t="shared" si="22"/>
+        <v>8.3134034079787575E-2</v>
+      </c>
+      <c r="BR87">
+        <f t="shared" si="23"/>
+        <v>0.18959973511703751</v>
+      </c>
+      <c r="BS87">
+        <f t="shared" si="24"/>
+        <v>0.21859678764865928</v>
+      </c>
+      <c r="BT87">
+        <f t="shared" si="15"/>
+        <v>107</v>
+      </c>
+      <c r="BU87" t="str">
+        <f t="shared" si="16"/>
+        <v>Attractivité Faible</v>
+      </c>
+      <c r="BY87" s="7">
         <f t="shared" si="17"/>
-        <v>0.20680107980046661</v>
-      </c>
-      <c r="BN87">
-        <f t="shared" si="18"/>
-        <v>0.59137191587990534</v>
-      </c>
-      <c r="BO87">
-        <f t="shared" si="19"/>
-        <v>0.28468236645332234</v>
-      </c>
-      <c r="BP87">
-        <f t="shared" si="20"/>
-        <v>0.43284238686680099</v>
-      </c>
-      <c r="BQ87">
-        <f t="shared" si="21"/>
-        <v>8.3134034079787575E-2</v>
-      </c>
-      <c r="BR87">
-        <f t="shared" si="22"/>
-        <v>0.18959973511703751</v>
-      </c>
-      <c r="BS87">
-        <f t="shared" si="23"/>
-        <v>0.21859678764865928</v>
-      </c>
-      <c r="BT87">
-        <f t="shared" si="14"/>
+        <v>0.21859678764473137</v>
+      </c>
+      <c r="BZ87">
+        <f t="shared" si="25"/>
         <v>107</v>
       </c>
-      <c r="BU87" t="str">
-        <f t="shared" si="15"/>
-        <v>Attractivité Faible</v>
-      </c>
-      <c r="BY87" s="7">
-        <f t="shared" si="16"/>
-        <v>0.21859678764473137</v>
-      </c>
-      <c r="BZ87">
-        <f t="shared" si="24"/>
-        <v>107</v>
+      <c r="CB87">
+        <f t="shared" si="26"/>
+        <v>33.333333333333329</v>
       </c>
     </row>
-    <row r="88" spans="1:78" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:80" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2019</v>
       </c>
@@ -22412,52 +22760,56 @@
         <v>10.040488243103027</v>
       </c>
       <c r="BK88" s="9"/>
-      <c r="BM88" s="13">
+      <c r="BM88" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BN88" s="13">
+        <f t="shared" si="19"/>
+        <v>0.55811172508947193</v>
+      </c>
+      <c r="BO88" s="13">
+        <f t="shared" si="20"/>
+        <v>0.33268089707501064</v>
+      </c>
+      <c r="BP88" s="13">
+        <f t="shared" si="21"/>
+        <v>0.31323939689783248</v>
+      </c>
+      <c r="BQ88" s="13">
+        <f t="shared" si="22"/>
+        <v>8.3134034079787575E-2</v>
+      </c>
+      <c r="BR88" s="13">
+        <f t="shared" si="23"/>
+        <v>0.17664349489746672</v>
+      </c>
+      <c r="BS88" s="13">
+        <f t="shared" si="24"/>
+        <v>0.14315738278846463</v>
+      </c>
+      <c r="BT88" s="13">
+        <f t="shared" si="15"/>
+        <v>112</v>
+      </c>
+      <c r="BU88" s="13" t="str">
+        <f t="shared" si="16"/>
+        <v>Attractivité Faible</v>
+      </c>
+      <c r="BY88" s="7">
         <f t="shared" si="17"/>
+        <v>0.14315738278589224</v>
+      </c>
+      <c r="BZ88">
+        <f t="shared" si="25"/>
+        <v>112</v>
+      </c>
+      <c r="CB88">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="BN88" s="13">
-        <f t="shared" si="18"/>
-        <v>0.55811172508947193</v>
-      </c>
-      <c r="BO88" s="13">
-        <f t="shared" si="19"/>
-        <v>0.33268089707501064</v>
-      </c>
-      <c r="BP88" s="13">
-        <f t="shared" si="20"/>
-        <v>0.31323939689783248</v>
-      </c>
-      <c r="BQ88" s="13">
-        <f t="shared" si="21"/>
-        <v>8.3134034079787575E-2</v>
-      </c>
-      <c r="BR88" s="13">
-        <f t="shared" si="22"/>
-        <v>0.17664349489746672</v>
-      </c>
-      <c r="BS88" s="13">
-        <f t="shared" si="23"/>
-        <v>0.14315738278846463</v>
-      </c>
-      <c r="BT88" s="13">
-        <f t="shared" si="14"/>
-        <v>112</v>
-      </c>
-      <c r="BU88" s="13" t="str">
-        <f t="shared" si="15"/>
-        <v>Attractivité Faible</v>
-      </c>
-      <c r="BY88" s="7">
-        <f t="shared" si="16"/>
-        <v>0.14315738278589224</v>
-      </c>
-      <c r="BZ88">
-        <f t="shared" si="24"/>
-        <v>112</v>
-      </c>
     </row>
-    <row r="89" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2019</v>
       </c>
@@ -22579,8 +22931,8 @@
       <c r="AO89" s="5">
         <v>72.100944519042969</v>
       </c>
-      <c r="AP89" s="5">
-        <v>0</v>
+      <c r="AP89" s="9">
+        <v>3</v>
       </c>
       <c r="AQ89" s="5">
         <v>3</v>
@@ -22594,7 +22946,7 @@
       <c r="AT89" s="5">
         <v>7</v>
       </c>
-      <c r="AU89" s="5">
+      <c r="AU89" s="9">
         <v>100</v>
       </c>
       <c r="AV89" s="5">
@@ -22644,51 +22996,54 @@
       </c>
       <c r="BK89" s="5"/>
       <c r="BM89">
+        <f t="shared" si="18"/>
+        <v>0.62040323940139985</v>
+      </c>
+      <c r="BN89">
+        <f t="shared" si="19"/>
+        <v>0.60296766484867392</v>
+      </c>
+      <c r="BO89">
+        <f t="shared" si="20"/>
+        <v>0.55836291546125982</v>
+      </c>
+      <c r="BP89">
+        <f t="shared" si="21"/>
+        <v>0.52518983902405891</v>
+      </c>
+      <c r="BQ89">
+        <f t="shared" si="22"/>
+        <v>8.3134034079787575E-2</v>
+      </c>
+      <c r="BR89">
+        <f t="shared" si="23"/>
+        <v>0.44731659543514862</v>
+      </c>
+      <c r="BS89">
+        <f t="shared" si="24"/>
+        <v>0.58992327800250366</v>
+      </c>
+      <c r="BT89">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="BU89" t="str">
+        <f t="shared" si="16"/>
+        <v>Attractivité Moyenne</v>
+      </c>
+      <c r="BY89" s="7">
         <f t="shared" si="17"/>
-        <v>0.62040323940139985</v>
-      </c>
-      <c r="BN89">
-        <f t="shared" si="18"/>
-        <v>0.60296766484867392</v>
-      </c>
-      <c r="BO89">
-        <f t="shared" si="19"/>
-        <v>0.55836291546125982</v>
-      </c>
-      <c r="BP89">
-        <f t="shared" si="20"/>
-        <v>0.52518983902405891</v>
-      </c>
-      <c r="BQ89">
-        <f t="shared" si="21"/>
-        <v>8.3134034079787575E-2</v>
-      </c>
-      <c r="BR89">
-        <f t="shared" si="22"/>
-        <v>0.44731659543514862</v>
-      </c>
-      <c r="BS89">
-        <f t="shared" si="23"/>
-        <v>0.58992327800250366</v>
-      </c>
-      <c r="BT89">
-        <f t="shared" si="14"/>
+        <v>0.58992327799190336</v>
+      </c>
+      <c r="BZ89">
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
-      <c r="BU89" t="str">
-        <f t="shared" si="15"/>
-        <v>Attractivité Moyenne</v>
-      </c>
-      <c r="BY89" s="7">
-        <f t="shared" si="16"/>
-        <v>0.58992327799190336</v>
-      </c>
-      <c r="BZ89">
-        <f t="shared" si="24"/>
-        <v>2</v>
+      <c r="CB89">
+        <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2019</v>
       </c>
@@ -22875,51 +23230,55 @@
       </c>
       <c r="BK90" s="5"/>
       <c r="BM90">
+        <f t="shared" si="18"/>
+        <v>0.62040323940139985</v>
+      </c>
+      <c r="BN90">
+        <f t="shared" si="19"/>
+        <v>0.49967522417715859</v>
+      </c>
+      <c r="BO90">
+        <f t="shared" si="20"/>
+        <v>0.48037822826850385</v>
+      </c>
+      <c r="BP90">
+        <f t="shared" si="21"/>
+        <v>0.50139506481389851</v>
+      </c>
+      <c r="BQ90">
+        <f t="shared" si="22"/>
+        <v>0.19046379449622974</v>
+      </c>
+      <c r="BR90">
+        <f t="shared" si="23"/>
+        <v>0.19354700055473745</v>
+      </c>
+      <c r="BS90">
+        <f t="shared" si="24"/>
+        <v>0.45177557025079873</v>
+      </c>
+      <c r="BT90">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="BU90" t="str">
+        <f t="shared" si="16"/>
+        <v>Attractivité Moyenne</v>
+      </c>
+      <c r="BY90" s="7">
         <f t="shared" si="17"/>
-        <v>0.62040323940139985</v>
-      </c>
-      <c r="BN90">
-        <f t="shared" si="18"/>
-        <v>0.49967522417715859</v>
-      </c>
-      <c r="BO90">
-        <f t="shared" si="19"/>
-        <v>0.48037822826850385</v>
-      </c>
-      <c r="BP90">
-        <f t="shared" si="20"/>
-        <v>0.50139506481389851</v>
-      </c>
-      <c r="BQ90">
-        <f t="shared" si="21"/>
-        <v>0.19046379449622974</v>
-      </c>
-      <c r="BR90">
-        <f t="shared" si="22"/>
-        <v>0.19354700055473745</v>
-      </c>
-      <c r="BS90">
-        <f t="shared" si="23"/>
-        <v>0.45177557025079873</v>
-      </c>
-      <c r="BT90">
-        <f t="shared" si="14"/>
+        <v>0.45177557024268084</v>
+      </c>
+      <c r="BZ90">
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
-      <c r="BU90" t="str">
-        <f t="shared" si="15"/>
-        <v>Attractivité Moyenne</v>
-      </c>
-      <c r="BY90" s="7">
-        <f t="shared" si="16"/>
-        <v>0.45177557024268084</v>
-      </c>
-      <c r="BZ90">
-        <f t="shared" si="24"/>
-        <v>9</v>
+      <c r="CB90">
+        <f t="shared" si="26"/>
+        <v>113.59223300970874</v>
       </c>
     </row>
-    <row r="91" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2019</v>
       </c>
@@ -23106,51 +23465,55 @@
       </c>
       <c r="BK91" s="5"/>
       <c r="BM91">
+        <f t="shared" si="18"/>
+        <v>0.62040323940139985</v>
+      </c>
+      <c r="BN91">
+        <f t="shared" si="19"/>
+        <v>0.52321888267349947</v>
+      </c>
+      <c r="BO91">
+        <f t="shared" si="20"/>
+        <v>0.42658926741240255</v>
+      </c>
+      <c r="BP91">
+        <f t="shared" si="21"/>
+        <v>0.47006113532803301</v>
+      </c>
+      <c r="BQ91">
+        <f t="shared" si="22"/>
+        <v>0.19046379449622974</v>
+      </c>
+      <c r="BR91">
+        <f t="shared" si="23"/>
+        <v>0.17205564815785343</v>
+      </c>
+      <c r="BS91">
+        <f t="shared" si="24"/>
+        <v>0.42321499516123889</v>
+      </c>
+      <c r="BT91">
+        <f t="shared" si="15"/>
+        <v>18</v>
+      </c>
+      <c r="BU91" t="str">
+        <f t="shared" si="16"/>
+        <v>Attractivité Moyenne</v>
+      </c>
+      <c r="BY91" s="7">
         <f t="shared" si="17"/>
-        <v>0.62040323940139985</v>
-      </c>
-      <c r="BN91">
-        <f t="shared" si="18"/>
-        <v>0.52321888267349947</v>
-      </c>
-      <c r="BO91">
-        <f t="shared" si="19"/>
-        <v>0.42658926741240255</v>
-      </c>
-      <c r="BP91">
-        <f t="shared" si="20"/>
-        <v>0.47006113532803301</v>
-      </c>
-      <c r="BQ91">
-        <f t="shared" si="21"/>
-        <v>0.19046379449622974</v>
-      </c>
-      <c r="BR91">
-        <f t="shared" si="22"/>
-        <v>0.17205564815785343</v>
-      </c>
-      <c r="BS91">
-        <f t="shared" si="23"/>
-        <v>0.42321499516123889</v>
-      </c>
-      <c r="BT91">
-        <f t="shared" si="14"/>
+        <v>0.4232149951536342</v>
+      </c>
+      <c r="BZ91">
+        <f t="shared" si="25"/>
         <v>18</v>
       </c>
-      <c r="BU91" t="str">
-        <f t="shared" si="15"/>
-        <v>Attractivité Moyenne</v>
-      </c>
-      <c r="BY91" s="7">
-        <f t="shared" si="16"/>
-        <v>0.4232149951536342</v>
-      </c>
-      <c r="BZ91">
-        <f t="shared" si="24"/>
-        <v>18</v>
+      <c r="CB91">
+        <f t="shared" si="26"/>
+        <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2019</v>
       </c>
@@ -23337,51 +23700,55 @@
       </c>
       <c r="BK92" s="5"/>
       <c r="BM92">
+        <f t="shared" si="18"/>
+        <v>0.62040323940139985</v>
+      </c>
+      <c r="BN92">
+        <f t="shared" si="19"/>
+        <v>0.48090676239387742</v>
+      </c>
+      <c r="BO92">
+        <f t="shared" si="20"/>
+        <v>0.47109285978546295</v>
+      </c>
+      <c r="BP92">
+        <f t="shared" si="21"/>
+        <v>0.49012274821042395</v>
+      </c>
+      <c r="BQ92">
+        <f t="shared" si="22"/>
+        <v>0.19046379449622974</v>
+      </c>
+      <c r="BR92">
+        <f t="shared" si="23"/>
+        <v>0.10568844803324844</v>
+      </c>
+      <c r="BS92">
+        <f t="shared" si="24"/>
+        <v>0.40480240029240178</v>
+      </c>
+      <c r="BT92">
+        <f t="shared" si="15"/>
+        <v>23</v>
+      </c>
+      <c r="BU92" t="str">
+        <f t="shared" si="16"/>
+        <v>Attractivité Moyenne</v>
+      </c>
+      <c r="BY92" s="7">
         <f t="shared" si="17"/>
-        <v>0.62040323940139985</v>
-      </c>
-      <c r="BN92">
-        <f t="shared" si="18"/>
-        <v>0.48090676239387742</v>
-      </c>
-      <c r="BO92">
-        <f t="shared" si="19"/>
-        <v>0.47109285978546295</v>
-      </c>
-      <c r="BP92">
-        <f t="shared" si="20"/>
-        <v>0.49012274821042395</v>
-      </c>
-      <c r="BQ92">
-        <f t="shared" si="21"/>
-        <v>0.19046379449622974</v>
-      </c>
-      <c r="BR92">
-        <f t="shared" si="22"/>
-        <v>0.10568844803324844</v>
-      </c>
-      <c r="BS92">
-        <f t="shared" si="23"/>
-        <v>0.40480240029240178</v>
-      </c>
-      <c r="BT92">
-        <f t="shared" si="14"/>
+        <v>0.40480240028512793</v>
+      </c>
+      <c r="BZ92">
+        <f t="shared" si="25"/>
         <v>23</v>
       </c>
-      <c r="BU92" t="str">
-        <f t="shared" si="15"/>
-        <v>Attractivité Moyenne</v>
-      </c>
-      <c r="BY92" s="7">
-        <f t="shared" si="16"/>
-        <v>0.40480240028512793</v>
-      </c>
-      <c r="BZ92">
-        <f t="shared" si="24"/>
-        <v>23</v>
+      <c r="CB92">
+        <f t="shared" si="26"/>
+        <v>106.45161290322579</v>
       </c>
     </row>
-    <row r="93" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2019</v>
       </c>
@@ -23568,51 +23935,55 @@
       </c>
       <c r="BK93" s="5"/>
       <c r="BM93">
+        <f t="shared" si="18"/>
+        <v>0.62040323940139985</v>
+      </c>
+      <c r="BN93">
+        <f t="shared" si="19"/>
+        <v>0.50035108040538456</v>
+      </c>
+      <c r="BO93">
+        <f t="shared" si="20"/>
+        <v>0.4401760983552932</v>
+      </c>
+      <c r="BP93">
+        <f t="shared" si="21"/>
+        <v>0.49707027781878832</v>
+      </c>
+      <c r="BQ93">
+        <f t="shared" si="22"/>
+        <v>0.19046379449622974</v>
+      </c>
+      <c r="BR93">
+        <f t="shared" si="23"/>
+        <v>0.17895562964318584</v>
+      </c>
+      <c r="BS93">
+        <f t="shared" si="24"/>
+        <v>0.4283550375146814</v>
+      </c>
+      <c r="BT93">
+        <f t="shared" si="15"/>
+        <v>16</v>
+      </c>
+      <c r="BU93" t="str">
+        <f t="shared" si="16"/>
+        <v>Attractivité Moyenne</v>
+      </c>
+      <c r="BY93" s="7">
         <f t="shared" si="17"/>
-        <v>0.62040323940139985</v>
-      </c>
-      <c r="BN93">
-        <f t="shared" si="18"/>
-        <v>0.50035108040538456</v>
-      </c>
-      <c r="BO93">
-        <f t="shared" si="19"/>
-        <v>0.4401760983552932</v>
-      </c>
-      <c r="BP93">
-        <f t="shared" si="20"/>
-        <v>0.49707027781878832</v>
-      </c>
-      <c r="BQ93">
-        <f t="shared" si="21"/>
-        <v>0.19046379449622974</v>
-      </c>
-      <c r="BR93">
-        <f t="shared" si="22"/>
-        <v>0.17895562964318584</v>
-      </c>
-      <c r="BS93">
-        <f t="shared" si="23"/>
-        <v>0.4283550375146814</v>
-      </c>
-      <c r="BT93">
-        <f t="shared" si="14"/>
+        <v>0.42835503750698439</v>
+      </c>
+      <c r="BZ93">
+        <f t="shared" si="25"/>
         <v>16</v>
       </c>
-      <c r="BU93" t="str">
-        <f t="shared" si="15"/>
-        <v>Attractivité Moyenne</v>
-      </c>
-      <c r="BY93" s="7">
-        <f t="shared" si="16"/>
-        <v>0.42835503750698439</v>
-      </c>
-      <c r="BZ93">
-        <f t="shared" si="24"/>
-        <v>16</v>
+      <c r="CB93">
+        <f t="shared" si="26"/>
+        <v>102.97619047619047</v>
       </c>
     </row>
-    <row r="94" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2019</v>
       </c>
@@ -23799,51 +24170,55 @@
       </c>
       <c r="BK94" s="5"/>
       <c r="BM94">
+        <f t="shared" si="18"/>
+        <v>0.62040323940139985</v>
+      </c>
+      <c r="BN94">
+        <f t="shared" si="19"/>
+        <v>0.46889068593494354</v>
+      </c>
+      <c r="BO94">
+        <f t="shared" si="20"/>
+        <v>0.46368938112860619</v>
+      </c>
+      <c r="BP94">
+        <f t="shared" si="21"/>
+        <v>0.47783014072617674</v>
+      </c>
+      <c r="BQ94">
+        <f t="shared" si="22"/>
+        <v>0.19046379449622974</v>
+      </c>
+      <c r="BR94">
+        <f t="shared" si="23"/>
+        <v>0.42413052008566315</v>
+      </c>
+      <c r="BS94">
+        <f t="shared" si="24"/>
+        <v>0.50437687284956267</v>
+      </c>
+      <c r="BT94">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="BU94" t="str">
+        <f t="shared" si="16"/>
+        <v>Attractivité Moyenne</v>
+      </c>
+      <c r="BY94" s="7">
         <f t="shared" si="17"/>
-        <v>0.62040323940139985</v>
-      </c>
-      <c r="BN94">
-        <f t="shared" si="18"/>
-        <v>0.46889068593494354</v>
-      </c>
-      <c r="BO94">
-        <f t="shared" si="19"/>
-        <v>0.46368938112860619</v>
-      </c>
-      <c r="BP94">
-        <f t="shared" si="20"/>
-        <v>0.47783014072617674</v>
-      </c>
-      <c r="BQ94">
-        <f t="shared" si="21"/>
-        <v>0.19046379449622974</v>
-      </c>
-      <c r="BR94">
-        <f t="shared" si="22"/>
-        <v>0.42413052008566315</v>
-      </c>
-      <c r="BS94">
-        <f t="shared" si="23"/>
-        <v>0.50437687284956267</v>
-      </c>
-      <c r="BT94">
-        <f t="shared" si="14"/>
+        <v>0.50437687284049959</v>
+      </c>
+      <c r="BZ94">
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
-      <c r="BU94" t="str">
-        <f t="shared" si="15"/>
-        <v>Attractivité Moyenne</v>
-      </c>
-      <c r="BY94" s="7">
-        <f t="shared" si="16"/>
-        <v>0.50437687284049959</v>
-      </c>
-      <c r="BZ94">
-        <f t="shared" si="24"/>
-        <v>5</v>
+      <c r="CB94">
+        <f t="shared" si="26"/>
+        <v>138.77551020408163</v>
       </c>
     </row>
-    <row r="95" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2019</v>
       </c>
@@ -24030,51 +24405,55 @@
       </c>
       <c r="BK95" s="5"/>
       <c r="BM95">
+        <f t="shared" si="18"/>
+        <v>0.62040323940139985</v>
+      </c>
+      <c r="BN95">
+        <f t="shared" si="19"/>
+        <v>0.51371204153395966</v>
+      </c>
+      <c r="BO95">
+        <f t="shared" si="20"/>
+        <v>0.43142841267973348</v>
+      </c>
+      <c r="BP95">
+        <f t="shared" si="21"/>
+        <v>0.48195006074362368</v>
+      </c>
+      <c r="BQ95">
+        <f t="shared" si="22"/>
+        <v>0.19046379449622974</v>
+      </c>
+      <c r="BR95">
+        <f t="shared" si="23"/>
+        <v>0.10511737525772216</v>
+      </c>
+      <c r="BS95">
+        <f t="shared" si="24"/>
+        <v>0.40066482863461367</v>
+      </c>
+      <c r="BT95">
+        <f t="shared" si="15"/>
+        <v>27</v>
+      </c>
+      <c r="BU95" t="str">
+        <f t="shared" si="16"/>
+        <v>Attractivité Moyenne</v>
+      </c>
+      <c r="BY95" s="7">
         <f t="shared" si="17"/>
-        <v>0.62040323940139985</v>
-      </c>
-      <c r="BN95">
-        <f t="shared" si="18"/>
-        <v>0.51371204153395966</v>
-      </c>
-      <c r="BO95">
-        <f t="shared" si="19"/>
-        <v>0.43142841267973348</v>
-      </c>
-      <c r="BP95">
-        <f t="shared" si="20"/>
-        <v>0.48195006074362368</v>
-      </c>
-      <c r="BQ95">
-        <f t="shared" si="21"/>
-        <v>0.19046379449622974</v>
-      </c>
-      <c r="BR95">
-        <f t="shared" si="22"/>
-        <v>0.10511737525772216</v>
-      </c>
-      <c r="BS95">
-        <f t="shared" si="23"/>
-        <v>0.40066482863461367</v>
-      </c>
-      <c r="BT95">
-        <f t="shared" si="14"/>
+        <v>0.4006648286274142</v>
+      </c>
+      <c r="BZ95">
+        <f t="shared" si="25"/>
         <v>27</v>
       </c>
-      <c r="BU95" t="str">
-        <f t="shared" si="15"/>
-        <v>Attractivité Moyenne</v>
-      </c>
-      <c r="BY95" s="7">
-        <f t="shared" si="16"/>
-        <v>0.4006648286274142</v>
-      </c>
-      <c r="BZ95">
-        <f t="shared" si="24"/>
-        <v>27</v>
+      <c r="CB95">
+        <f t="shared" si="26"/>
+        <v>130.76923076923077</v>
       </c>
     </row>
-    <row r="96" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2019</v>
       </c>
@@ -24261,51 +24640,55 @@
       </c>
       <c r="BK96" s="5"/>
       <c r="BM96">
+        <f t="shared" si="18"/>
+        <v>0.40879283216371304</v>
+      </c>
+      <c r="BN96">
+        <f t="shared" si="19"/>
+        <v>0.5077957938457226</v>
+      </c>
+      <c r="BO96">
+        <f t="shared" si="20"/>
+        <v>0.43655707945878497</v>
+      </c>
+      <c r="BP96">
+        <f t="shared" si="21"/>
+        <v>0.44093286529186126</v>
+      </c>
+      <c r="BQ96">
+        <f t="shared" si="22"/>
+        <v>0.19046379449622974</v>
+      </c>
+      <c r="BR96">
+        <f t="shared" si="23"/>
+        <v>0.18099608474005896</v>
+      </c>
+      <c r="BS96">
+        <f t="shared" si="24"/>
+        <v>0.35255995651391425</v>
+      </c>
+      <c r="BT96">
+        <f t="shared" si="15"/>
+        <v>54</v>
+      </c>
+      <c r="BU96" t="str">
+        <f t="shared" si="16"/>
+        <v>Attractivité Moyenne</v>
+      </c>
+      <c r="BY96" s="7">
         <f t="shared" si="17"/>
-        <v>0.40879283216371304</v>
-      </c>
-      <c r="BN96">
-        <f t="shared" si="18"/>
-        <v>0.5077957938457226</v>
-      </c>
-      <c r="BO96">
-        <f t="shared" si="19"/>
-        <v>0.43655707945878497</v>
-      </c>
-      <c r="BP96">
-        <f t="shared" si="20"/>
-        <v>0.44093286529186126</v>
-      </c>
-      <c r="BQ96">
-        <f t="shared" si="21"/>
-        <v>0.19046379449622974</v>
-      </c>
-      <c r="BR96">
-        <f t="shared" si="22"/>
-        <v>0.18099608474005896</v>
-      </c>
-      <c r="BS96">
-        <f t="shared" si="23"/>
-        <v>0.35255995651391425</v>
-      </c>
-      <c r="BT96">
-        <f t="shared" si="14"/>
+        <v>0.35255995650757921</v>
+      </c>
+      <c r="BZ96">
+        <f t="shared" si="25"/>
         <v>54</v>
       </c>
-      <c r="BU96" t="str">
-        <f t="shared" si="15"/>
-        <v>Attractivité Moyenne</v>
-      </c>
-      <c r="BY96" s="7">
-        <f t="shared" si="16"/>
-        <v>0.35255995650757921</v>
-      </c>
-      <c r="BZ96">
-        <f t="shared" si="24"/>
-        <v>54</v>
+      <c r="CB96">
+        <f t="shared" si="26"/>
+        <v>65.891472868217051</v>
       </c>
     </row>
-    <row r="97" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2019</v>
       </c>
@@ -24492,51 +24875,55 @@
       </c>
       <c r="BK97" s="5"/>
       <c r="BM97">
+        <f t="shared" si="18"/>
+        <v>0.62040323940139985</v>
+      </c>
+      <c r="BN97">
+        <f t="shared" si="19"/>
+        <v>0.53671277264633221</v>
+      </c>
+      <c r="BO97">
+        <f t="shared" si="20"/>
+        <v>0.41902034789170539</v>
+      </c>
+      <c r="BP97">
+        <f t="shared" si="21"/>
+        <v>0.51917950519663503</v>
+      </c>
+      <c r="BQ97">
+        <f t="shared" si="22"/>
+        <v>0.19046379449622974</v>
+      </c>
+      <c r="BR97">
+        <f t="shared" si="23"/>
+        <v>0.20012363840991537</v>
+      </c>
+      <c r="BS97">
+        <f t="shared" si="24"/>
+        <v>0.44885111663846122</v>
+      </c>
+      <c r="BT97">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+      <c r="BU97" t="str">
+        <f t="shared" si="16"/>
+        <v>Attractivité Moyenne</v>
+      </c>
+      <c r="BY97" s="7">
         <f t="shared" si="17"/>
-        <v>0.62040323940139985</v>
-      </c>
-      <c r="BN97">
-        <f t="shared" si="18"/>
-        <v>0.53671277264633221</v>
-      </c>
-      <c r="BO97">
-        <f t="shared" si="19"/>
-        <v>0.41902034789170539</v>
-      </c>
-      <c r="BP97">
-        <f t="shared" si="20"/>
-        <v>0.51917950519663503</v>
-      </c>
-      <c r="BQ97">
-        <f t="shared" si="21"/>
-        <v>0.19046379449622974</v>
-      </c>
-      <c r="BR97">
-        <f t="shared" si="22"/>
-        <v>0.20012363840991537</v>
-      </c>
-      <c r="BS97">
-        <f t="shared" si="23"/>
-        <v>0.44885111663846122</v>
-      </c>
-      <c r="BT97">
-        <f t="shared" si="14"/>
+        <v>0.4488511166303959</v>
+      </c>
+      <c r="BZ97">
+        <f t="shared" si="25"/>
         <v>11</v>
       </c>
-      <c r="BU97" t="str">
-        <f t="shared" si="15"/>
-        <v>Attractivité Moyenne</v>
-      </c>
-      <c r="BY97" s="7">
-        <f t="shared" si="16"/>
-        <v>0.4488511166303959</v>
-      </c>
-      <c r="BZ97">
-        <f t="shared" si="24"/>
-        <v>11</v>
+      <c r="CB97">
+        <f t="shared" si="26"/>
+        <v>124.54545454545453</v>
       </c>
     </row>
-    <row r="98" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2019</v>
       </c>
@@ -24723,51 +25110,55 @@
       </c>
       <c r="BK98" s="5"/>
       <c r="BM98">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.59326059767758865</v>
       </c>
       <c r="BN98">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.53100434054209422</v>
       </c>
       <c r="BO98">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.46176613108646197</v>
       </c>
       <c r="BP98">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.48217855849909408</v>
       </c>
       <c r="BQ98">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.19046379449622974</v>
       </c>
       <c r="BR98">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>6.186926243904161E-2</v>
       </c>
       <c r="BS98">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.39975884531099187</v>
       </c>
       <c r="BT98">
-        <f t="shared" ref="BT98:BT113" si="25">RANK(BS98,$BS$2:$BS$113,0)</f>
+        <f t="shared" ref="BT98:BT113" si="27">RANK(BS98,$BS$2:$BS$113,0)</f>
         <v>29</v>
       </c>
       <c r="BU98" t="str">
-        <f t="shared" ref="BU98:BU113" si="26">IF(BS98&lt;=0.333,"Attractivité Faible",IF(BS98&lt;=0.67,"Attractivité Moyenne",IF(BS98&gt;0.67,"Attractivité Forte","")))</f>
+        <f t="shared" ref="BU98:BU113" si="28">IF(BS98&lt;=0.333,"Attractivité Faible",IF(BS98&lt;=0.67,"Attractivité Moyenne",IF(BS98&gt;0.67,"Attractivité Forte","")))</f>
         <v>Attractivité Moyenne</v>
       </c>
       <c r="BY98" s="7">
-        <f t="shared" ref="BY98:BY113" si="27">SQRT(3)/4*(BM98*BN98+BN98*BO98+BO98*BP98+BP98*BQ98+BQ98*BR98+BR98*BM98)</f>
+        <f t="shared" ref="BY98:BY113" si="29">SQRT(3)/4*(BM98*BN98+BN98*BO98+BO98*BP98+BP98*BQ98+BQ98*BR98+BR98*BM98)</f>
         <v>0.39975884530380867</v>
       </c>
       <c r="BZ98">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>29</v>
       </c>
+      <c r="CB98">
+        <f t="shared" si="26"/>
+        <v>95.625</v>
+      </c>
     </row>
-    <row r="99" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2019</v>
       </c>
@@ -24954,51 +25345,55 @@
       </c>
       <c r="BK99" s="5"/>
       <c r="BM99">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.62040323940139985</v>
       </c>
       <c r="BN99">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.51013836371739807</v>
       </c>
       <c r="BO99">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.40197993891614692</v>
       </c>
       <c r="BP99">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.48058828971989087</v>
       </c>
       <c r="BQ99">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.19046379449622974</v>
       </c>
       <c r="BR99">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.1258326201094665</v>
       </c>
       <c r="BS99">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.39331060112000715</v>
       </c>
       <c r="BT99">
+        <f t="shared" si="27"/>
+        <v>30</v>
+      </c>
+      <c r="BU99" t="str">
+        <f t="shared" si="28"/>
+        <v>Attractivité Moyenne</v>
+      </c>
+      <c r="BY99" s="7">
+        <f t="shared" si="29"/>
+        <v>0.39331060111293981</v>
+      </c>
+      <c r="BZ99">
         <f t="shared" si="25"/>
         <v>30</v>
       </c>
-      <c r="BU99" t="str">
+      <c r="CB99">
         <f t="shared" si="26"/>
-        <v>Attractivité Moyenne</v>
-      </c>
-      <c r="BY99" s="7">
-        <f t="shared" si="27"/>
-        <v>0.39331060111293981</v>
-      </c>
-      <c r="BZ99">
-        <f t="shared" si="24"/>
-        <v>30</v>
+        <v>117.56756756756756</v>
       </c>
     </row>
-    <row r="100" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2019</v>
       </c>
@@ -25185,51 +25580,55 @@
       </c>
       <c r="BK100" s="5"/>
       <c r="BM100">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.62040323940139985</v>
       </c>
       <c r="BN100">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.50081590240487572</v>
       </c>
       <c r="BO100">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.50575272076002109</v>
       </c>
       <c r="BP100">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.49232768921479564</v>
       </c>
       <c r="BQ100">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.19046379449622974</v>
       </c>
       <c r="BR100">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>7.3090735978858415E-2</v>
       </c>
       <c r="BS100">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.41830341191665937</v>
       </c>
       <c r="BT100">
+        <f t="shared" si="27"/>
+        <v>20</v>
+      </c>
+      <c r="BU100" t="str">
+        <f t="shared" si="28"/>
+        <v>Attractivité Moyenne</v>
+      </c>
+      <c r="BY100" s="7">
+        <f t="shared" si="29"/>
+        <v>0.418303411909143</v>
+      </c>
+      <c r="BZ100">
         <f t="shared" si="25"/>
         <v>20</v>
       </c>
-      <c r="BU100" t="str">
+      <c r="CB100">
         <f t="shared" si="26"/>
-        <v>Attractivité Moyenne</v>
-      </c>
-      <c r="BY100" s="7">
-        <f t="shared" si="27"/>
-        <v>0.418303411909143</v>
-      </c>
-      <c r="BZ100">
-        <f t="shared" si="24"/>
-        <v>20</v>
+        <v>112.16814159292035</v>
       </c>
     </row>
-    <row r="101" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2019</v>
       </c>
@@ -25416,51 +25815,55 @@
       </c>
       <c r="BK101" s="5"/>
       <c r="BM101">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.57608872230129993</v>
       </c>
       <c r="BN101">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.48349759390729635</v>
       </c>
       <c r="BO101">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.43655707945878497</v>
       </c>
       <c r="BP101">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.4321689189143692</v>
       </c>
       <c r="BQ101">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.19046379449622974</v>
       </c>
       <c r="BR101">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.13371154292454893</v>
       </c>
       <c r="BS101">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.37372792033415353</v>
       </c>
       <c r="BT101">
+        <f t="shared" si="27"/>
+        <v>42</v>
+      </c>
+      <c r="BU101" t="str">
+        <f t="shared" si="28"/>
+        <v>Attractivité Moyenne</v>
+      </c>
+      <c r="BY101" s="7">
+        <f t="shared" si="29"/>
+        <v>0.37372792032743807</v>
+      </c>
+      <c r="BZ101">
         <f t="shared" si="25"/>
         <v>42</v>
       </c>
-      <c r="BU101" t="str">
+      <c r="CB101">
         <f t="shared" si="26"/>
-        <v>Attractivité Moyenne</v>
-      </c>
-      <c r="BY101" s="7">
-        <f t="shared" si="27"/>
-        <v>0.37372792032743807</v>
-      </c>
-      <c r="BZ101">
-        <f t="shared" si="24"/>
-        <v>42</v>
+        <v>92.857142857142861</v>
       </c>
     </row>
-    <row r="102" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2019</v>
       </c>
@@ -25647,51 +26050,55 @@
       </c>
       <c r="BK102" s="5"/>
       <c r="BM102">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.62040323940139985</v>
       </c>
       <c r="BN102">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.5126122945273478</v>
       </c>
       <c r="BO102">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.43045644760467128</v>
       </c>
       <c r="BP102">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.46081966425244125</v>
       </c>
       <c r="BQ102">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.19046379449622974</v>
       </c>
       <c r="BR102">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>9.7890464666665775E-2</v>
       </c>
       <c r="BS102">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.39152662251784082</v>
       </c>
       <c r="BT102">
+        <f t="shared" si="27"/>
+        <v>32</v>
+      </c>
+      <c r="BU102" t="str">
+        <f t="shared" si="28"/>
+        <v>Attractivité Moyenne</v>
+      </c>
+      <c r="BY102" s="7">
+        <f t="shared" si="29"/>
+        <v>0.39152662251080556</v>
+      </c>
+      <c r="BZ102">
         <f t="shared" si="25"/>
         <v>32</v>
       </c>
-      <c r="BU102" t="str">
+      <c r="CB102">
         <f t="shared" si="26"/>
-        <v>Attractivité Moyenne</v>
-      </c>
-      <c r="BY102" s="7">
-        <f t="shared" si="27"/>
-        <v>0.39152662251080556</v>
-      </c>
-      <c r="BZ102">
-        <f t="shared" si="24"/>
-        <v>32</v>
+        <v>104.29594272076372</v>
       </c>
     </row>
-    <row r="103" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2019</v>
       </c>
@@ -25878,51 +26285,55 @@
       </c>
       <c r="BK103" s="5"/>
       <c r="BM103">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.62040323940139985</v>
       </c>
       <c r="BN103">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.51298710097351485</v>
       </c>
       <c r="BO103">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.2325684943436048</v>
       </c>
       <c r="BP103">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.46605391729259416</v>
       </c>
       <c r="BQ103">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.19046379449622974</v>
       </c>
       <c r="BR103">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.1253755252239914</v>
       </c>
       <c r="BS103">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.31886286013593618</v>
       </c>
       <c r="BT103">
+        <f t="shared" si="27"/>
+        <v>79</v>
+      </c>
+      <c r="BU103" t="str">
+        <f t="shared" si="28"/>
+        <v>Attractivité Faible</v>
+      </c>
+      <c r="BY103" s="7">
+        <f t="shared" si="29"/>
+        <v>0.31886286013020659</v>
+      </c>
+      <c r="BZ103">
         <f t="shared" si="25"/>
         <v>79</v>
       </c>
-      <c r="BU103" t="str">
+      <c r="CB103">
         <f t="shared" si="26"/>
-        <v>Attractivité Faible</v>
-      </c>
-      <c r="BY103" s="7">
-        <f t="shared" si="27"/>
-        <v>0.31886286013020659</v>
-      </c>
-      <c r="BZ103">
-        <f t="shared" si="24"/>
-        <v>79</v>
+        <v>108.01186943620178</v>
       </c>
     </row>
-    <row r="104" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2019</v>
       </c>
@@ -26109,51 +26520,55 @@
       </c>
       <c r="BK104" s="5"/>
       <c r="BM104">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.62040323940139985</v>
       </c>
       <c r="BN104">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.50634805454357257</v>
       </c>
       <c r="BO104">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.45022663083359593</v>
       </c>
       <c r="BP104">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.49905100174102152</v>
       </c>
       <c r="BQ104">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.19046379449622974</v>
       </c>
       <c r="BR104">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.20942263438232439</v>
       </c>
       <c r="BS104">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.44672294962972398</v>
       </c>
       <c r="BT104">
+        <f t="shared" si="27"/>
+        <v>12</v>
+      </c>
+      <c r="BU104" t="str">
+        <f t="shared" si="28"/>
+        <v>Attractivité Moyenne</v>
+      </c>
+      <c r="BY104" s="7">
+        <f t="shared" si="29"/>
+        <v>0.4467229496216969</v>
+      </c>
+      <c r="BZ104">
         <f t="shared" si="25"/>
         <v>12</v>
       </c>
-      <c r="BU104" t="str">
+      <c r="CB104">
         <f t="shared" si="26"/>
-        <v>Attractivité Moyenne</v>
-      </c>
-      <c r="BY104" s="7">
-        <f t="shared" si="27"/>
-        <v>0.4467229496216969</v>
-      </c>
-      <c r="BZ104">
-        <f t="shared" si="24"/>
-        <v>12</v>
+        <v>106.3963963963964</v>
       </c>
     </row>
-    <row r="105" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2019</v>
       </c>
@@ -26340,51 +26755,55 @@
       </c>
       <c r="BK105" s="5"/>
       <c r="BM105">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.62040323940139985</v>
       </c>
       <c r="BN105">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.51161620681442876</v>
       </c>
       <c r="BO105">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.46683275754157333</v>
       </c>
       <c r="BP105">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.46919481587368961</v>
       </c>
       <c r="BQ105">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.19046379449622974</v>
       </c>
       <c r="BR105">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.32660712291789556</v>
       </c>
       <c r="BS105">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.48908032986274358</v>
       </c>
       <c r="BT105">
+        <f t="shared" si="27"/>
+        <v>7</v>
+      </c>
+      <c r="BU105" t="str">
+        <f t="shared" si="28"/>
+        <v>Attractivité Moyenne</v>
+      </c>
+      <c r="BY105" s="7">
+        <f t="shared" si="29"/>
+        <v>0.48908032985395539</v>
+      </c>
+      <c r="BZ105">
         <f t="shared" si="25"/>
         <v>7</v>
       </c>
-      <c r="BU105" t="str">
+      <c r="CB105">
         <f t="shared" si="26"/>
-        <v>Attractivité Moyenne</v>
-      </c>
-      <c r="BY105" s="7">
-        <f t="shared" si="27"/>
-        <v>0.48908032985395539</v>
-      </c>
-      <c r="BZ105">
-        <f t="shared" si="24"/>
-        <v>7</v>
+        <v>103.75690607734806</v>
       </c>
     </row>
-    <row r="106" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2019</v>
       </c>
@@ -26571,51 +26990,55 @@
       </c>
       <c r="BK106" s="5"/>
       <c r="BM106">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.50961694665114987</v>
       </c>
       <c r="BN106">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.48598254147551412</v>
       </c>
       <c r="BO106">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.37987290348547709</v>
       </c>
       <c r="BP106">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.44538825149619049</v>
       </c>
       <c r="BQ106">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.19046379449622974</v>
       </c>
       <c r="BR106">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4.225674361527746E-2</v>
       </c>
       <c r="BS106">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.30998553792596062</v>
       </c>
       <c r="BT106">
+        <f t="shared" si="27"/>
+        <v>84</v>
+      </c>
+      <c r="BU106" t="str">
+        <f t="shared" si="28"/>
+        <v>Attractivité Faible</v>
+      </c>
+      <c r="BY106" s="7">
+        <f t="shared" si="29"/>
+        <v>0.30998553792039052</v>
+      </c>
+      <c r="BZ106">
         <f t="shared" si="25"/>
         <v>84</v>
       </c>
-      <c r="BU106" t="str">
+      <c r="CB106">
         <f t="shared" si="26"/>
-        <v>Attractivité Faible</v>
-      </c>
-      <c r="BY106" s="7">
-        <f t="shared" si="27"/>
-        <v>0.30998553792039052</v>
-      </c>
-      <c r="BZ106">
-        <f t="shared" si="24"/>
-        <v>84</v>
+        <v>82.142857142857139</v>
       </c>
     </row>
-    <row r="107" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2019</v>
       </c>
@@ -26802,51 +27225,55 @@
       </c>
       <c r="BK107" s="5"/>
       <c r="BM107">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.62040323940139985</v>
       </c>
       <c r="BN107">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.5265868038920325</v>
       </c>
       <c r="BO107">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.40977633962462467</v>
       </c>
       <c r="BP107">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.50113165411967309</v>
       </c>
       <c r="BQ107">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.19046379449622974</v>
       </c>
       <c r="BR107">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.24331988608199145</v>
       </c>
       <c r="BS107">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.45058365480197532</v>
       </c>
       <c r="BT107">
+        <f t="shared" si="27"/>
+        <v>10</v>
+      </c>
+      <c r="BU107" t="str">
+        <f t="shared" si="28"/>
+        <v>Attractivité Moyenne</v>
+      </c>
+      <c r="BY107" s="7">
+        <f t="shared" si="29"/>
+        <v>0.45058365479387885</v>
+      </c>
+      <c r="BZ107">
         <f t="shared" si="25"/>
         <v>10</v>
       </c>
-      <c r="BU107" t="str">
+      <c r="CB107">
         <f t="shared" si="26"/>
-        <v>Attractivité Moyenne</v>
-      </c>
-      <c r="BY107" s="7">
-        <f t="shared" si="27"/>
-        <v>0.45058365479387885</v>
-      </c>
-      <c r="BZ107">
-        <f t="shared" si="24"/>
-        <v>10</v>
+        <v>101.64473684210526</v>
       </c>
     </row>
-    <row r="108" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2019</v>
       </c>
@@ -27033,51 +27460,55 @@
       </c>
       <c r="BK108" s="5"/>
       <c r="BM108">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.62040323940139985</v>
       </c>
       <c r="BN108">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.49485397836119882</v>
       </c>
       <c r="BO108">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.43132501213983315</v>
       </c>
       <c r="BP108">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.4468334273057345</v>
       </c>
       <c r="BQ108">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.19046379449622974</v>
       </c>
       <c r="BR108">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>8.0236476372987281E-2</v>
       </c>
       <c r="BS108">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.37384110333656762</v>
       </c>
       <c r="BT108">
+        <f t="shared" si="27"/>
+        <v>41</v>
+      </c>
+      <c r="BU108" t="str">
+        <f t="shared" si="28"/>
+        <v>Attractivité Moyenne</v>
+      </c>
+      <c r="BY108" s="7">
+        <f t="shared" si="29"/>
+        <v>0.37384110332985016</v>
+      </c>
+      <c r="BZ108">
         <f t="shared" si="25"/>
         <v>41</v>
       </c>
-      <c r="BU108" t="str">
+      <c r="CB108">
         <f t="shared" si="26"/>
-        <v>Attractivité Moyenne</v>
-      </c>
-      <c r="BY108" s="7">
-        <f t="shared" si="27"/>
-        <v>0.37384110332985016</v>
-      </c>
-      <c r="BZ108">
-        <f t="shared" si="24"/>
-        <v>41</v>
+        <v>120.58823529411764</v>
       </c>
     </row>
-    <row r="109" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2019</v>
       </c>
@@ -27264,51 +27695,55 @@
       </c>
       <c r="BK109" s="5"/>
       <c r="BM109">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.62040323940139985</v>
       </c>
       <c r="BN109">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.52719428166950466</v>
       </c>
       <c r="BO109">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.40698452504731825</v>
       </c>
       <c r="BP109">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.47782215356043778</v>
       </c>
       <c r="BQ109">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.19046379449622974</v>
       </c>
       <c r="BR109">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.15960422633191559</v>
       </c>
       <c r="BS109">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.4141873892788705</v>
       </c>
       <c r="BT109">
+        <f t="shared" si="27"/>
+        <v>21</v>
+      </c>
+      <c r="BU109" t="str">
+        <f t="shared" si="28"/>
+        <v>Attractivité Moyenne</v>
+      </c>
+      <c r="BY109" s="7">
+        <f t="shared" si="29"/>
+        <v>0.41418738927142806</v>
+      </c>
+      <c r="BZ109">
         <f t="shared" si="25"/>
         <v>21</v>
       </c>
-      <c r="BU109" t="str">
+      <c r="CB109">
         <f t="shared" si="26"/>
-        <v>Attractivité Moyenne</v>
-      </c>
-      <c r="BY109" s="7">
-        <f t="shared" si="27"/>
-        <v>0.41418738927142806</v>
-      </c>
-      <c r="BZ109">
-        <f t="shared" si="24"/>
-        <v>21</v>
+        <v>132.71604938271605</v>
       </c>
     </row>
-    <row r="110" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2019</v>
       </c>
@@ -27495,51 +27930,55 @@
       </c>
       <c r="BK110" s="5"/>
       <c r="BM110">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.62040323940139985</v>
       </c>
       <c r="BN110">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.50368699267535155</v>
       </c>
       <c r="BO110">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.41924782907948599</v>
       </c>
       <c r="BP110">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.45368515470023518</v>
       </c>
       <c r="BQ110">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.19046379449622974</v>
       </c>
       <c r="BR110">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.16887265701258852</v>
       </c>
       <c r="BS110">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.40582344588227992</v>
       </c>
       <c r="BT110">
+        <f t="shared" si="27"/>
+        <v>22</v>
+      </c>
+      <c r="BU110" t="str">
+        <f t="shared" si="28"/>
+        <v>Attractivité Moyenne</v>
+      </c>
+      <c r="BY110" s="7">
+        <f t="shared" si="29"/>
+        <v>0.40582344587498775</v>
+      </c>
+      <c r="BZ110">
         <f t="shared" si="25"/>
         <v>22</v>
       </c>
-      <c r="BU110" t="str">
+      <c r="CB110">
         <f t="shared" si="26"/>
-        <v>Attractivité Moyenne</v>
-      </c>
-      <c r="BY110" s="7">
-        <f t="shared" si="27"/>
-        <v>0.40582344587498775</v>
-      </c>
-      <c r="BZ110">
-        <f t="shared" si="24"/>
-        <v>22</v>
+        <v>115.38461538461537</v>
       </c>
     </row>
-    <row r="111" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2019</v>
       </c>
@@ -27726,51 +28165,55 @@
       </c>
       <c r="BK111" s="5"/>
       <c r="BM111">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.62040323940139985</v>
       </c>
       <c r="BN111">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.49895376259300894</v>
       </c>
       <c r="BO111">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.45227396152362043</v>
       </c>
       <c r="BP111">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.46757421952928396</v>
       </c>
       <c r="BQ111">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.19046379449622974</v>
       </c>
       <c r="BR111">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.29548126633466765</v>
       </c>
       <c r="BS111">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.46563585638231708</v>
       </c>
       <c r="BT111">
+        <f t="shared" si="27"/>
+        <v>8</v>
+      </c>
+      <c r="BU111" t="str">
+        <f t="shared" si="28"/>
+        <v>Attractivité Moyenne</v>
+      </c>
+      <c r="BY111" s="7">
+        <f t="shared" si="29"/>
+        <v>0.46563585637395016</v>
+      </c>
+      <c r="BZ111">
         <f t="shared" si="25"/>
         <v>8</v>
       </c>
-      <c r="BU111" t="str">
+      <c r="CB111">
         <f t="shared" si="26"/>
-        <v>Attractivité Moyenne</v>
-      </c>
-      <c r="BY111" s="7">
-        <f t="shared" si="27"/>
-        <v>0.46563585637395016</v>
-      </c>
-      <c r="BZ111">
-        <f t="shared" si="24"/>
-        <v>8</v>
+        <v>106.94006309148266</v>
       </c>
     </row>
-    <row r="112" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>2019</v>
       </c>
@@ -27957,51 +28400,55 @@
       </c>
       <c r="BK112" s="5"/>
       <c r="BM112">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.53450125240735991</v>
       </c>
       <c r="BN112">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.49127079844271548</v>
       </c>
       <c r="BO112">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.47822749703857903</v>
       </c>
       <c r="BP112">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.45660114065826768</v>
       </c>
       <c r="BQ112">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.19046379449622974</v>
       </c>
       <c r="BR112">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>6.4885327805028398E-2</v>
       </c>
       <c r="BS112">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.36801267267656845</v>
       </c>
       <c r="BT112">
+        <f t="shared" si="27"/>
+        <v>44</v>
+      </c>
+      <c r="BU112" t="str">
+        <f t="shared" si="28"/>
+        <v>Attractivité Moyenne</v>
+      </c>
+      <c r="BY112" s="7">
+        <f t="shared" si="29"/>
+        <v>0.36801267266995569</v>
+      </c>
+      <c r="BZ112">
         <f t="shared" si="25"/>
         <v>44</v>
       </c>
-      <c r="BU112" t="str">
+      <c r="CB112">
         <f t="shared" si="26"/>
-        <v>Attractivité Moyenne</v>
-      </c>
-      <c r="BY112" s="7">
-        <f t="shared" si="27"/>
-        <v>0.36801267266995569</v>
-      </c>
-      <c r="BZ112">
-        <f t="shared" si="24"/>
-        <v>44</v>
+        <v>86.15384615384616</v>
       </c>
     </row>
-    <row r="113" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>2019</v>
       </c>
@@ -28188,48 +28635,58 @@
       </c>
       <c r="BK113" s="5"/>
       <c r="BM113">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.62040323940139985</v>
       </c>
       <c r="BN113">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.49446238052944397</v>
       </c>
       <c r="BO113">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.42524506039369953</v>
       </c>
       <c r="BP113">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.41417635674079228</v>
       </c>
       <c r="BQ113">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.19046379449622974</v>
       </c>
       <c r="BR113">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>6.3785847046602479E-2</v>
       </c>
       <c r="BS113">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.3567018508603898</v>
       </c>
       <c r="BT113">
+        <f t="shared" si="27"/>
+        <v>52</v>
+      </c>
+      <c r="BU113" t="str">
+        <f t="shared" si="28"/>
+        <v>Attractivité Moyenne</v>
+      </c>
+      <c r="BY113" s="7">
+        <f t="shared" si="29"/>
+        <v>0.35670185085398026</v>
+      </c>
+      <c r="BZ113">
         <f t="shared" si="25"/>
         <v>52</v>
       </c>
-      <c r="BU113" t="str">
+      <c r="CB113">
         <f t="shared" si="26"/>
-        <v>Attractivité Moyenne</v>
-      </c>
-      <c r="BY113" s="7">
-        <f t="shared" si="27"/>
-        <v>0.35670185085398026</v>
-      </c>
-      <c r="BZ113">
-        <f t="shared" si="24"/>
-        <v>52</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="114" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="CB114">
+        <f>MAX(CB2:CB113)</f>
+        <v>600</v>
       </c>
     </row>
   </sheetData>
